--- a/InputExample.xlsx
+++ b/InputExample.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Roster\y\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7CDEE1-FA7D-4F23-9747-6F62B1DA637F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF7A52B-16E3-4436-BDD5-127D9F8C631D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DaysShifts" sheetId="1" r:id="rId1"/>
-    <sheet name="Personnel" sheetId="2" r:id="rId2"/>
-    <sheet name="Restrictions" sheetId="3" r:id="rId3"/>
-    <sheet name="RestrictedDaysShifts" sheetId="4" r:id="rId4"/>
-    <sheet name="DesiredDaysShifts" sheetId="5" r:id="rId5"/>
-    <sheet name="Qualifications" sheetId="6" r:id="rId6"/>
-    <sheet name="Result_Example(Personnel)" sheetId="7" r:id="rId7"/>
-    <sheet name="Result_Example(Assigned)" sheetId="8" r:id="rId8"/>
+    <sheet name="README" sheetId="9" r:id="rId1"/>
+    <sheet name="DaysShifts" sheetId="1" r:id="rId2"/>
+    <sheet name="Personnel" sheetId="2" r:id="rId3"/>
+    <sheet name="Restrictions" sheetId="3" r:id="rId4"/>
+    <sheet name="RestrictedDaysShifts" sheetId="4" r:id="rId5"/>
+    <sheet name="DesiredDaysShifts" sheetId="5" r:id="rId6"/>
+    <sheet name="Qualifications" sheetId="6" r:id="rId7"/>
+    <sheet name="Result_Example(Personnel)" sheetId="7" r:id="rId8"/>
+    <sheet name="Result_Example(Assigned)" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -29,7 +25,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>-</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="D12" authorId="0" shapeId="0" xr:uid="{B41A36B8-20EF-4BD6-864B-ACB47BF20CE2}">
@@ -42,7 +38,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>-:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -61,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="142">
   <si>
     <t>Day number</t>
   </si>
@@ -771,12 +767,122 @@
   <si>
     <t>Day</t>
   </si>
+  <si>
+    <t>Microsoft Store</t>
+  </si>
+  <si>
+    <t>See</t>
+  </si>
+  <si>
+    <t>Qualifications</t>
+  </si>
+  <si>
+    <t>Personnel</t>
+  </si>
+  <si>
+    <t>DaysShifts</t>
+  </si>
+  <si>
+    <t>The following worksheets are optional</t>
+  </si>
+  <si>
+    <t>Restrictions</t>
+  </si>
+  <si>
+    <t>RestrictedDaysShifts</t>
+  </si>
+  <si>
+    <t>DesiredDaysShifts</t>
+  </si>
+  <si>
+    <t>These worksheets are examples of program output.</t>
+  </si>
+  <si>
+    <t>List of days, shifts and required qualifications for the entire planning period</t>
+  </si>
+  <si>
+    <t>List of restrictions when a person cannot be assigned to a shift</t>
+  </si>
+  <si>
+    <t>List of desired working days and shifts for a person</t>
+  </si>
+  <si>
+    <t>Result_Example(Personnel)</t>
+  </si>
+  <si>
+    <t>Result_Example(Assigned)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Excel workbook with the source data </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>must contain four sheets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, these are:</t>
+    </r>
+  </si>
+  <si>
+    <t>In fact, as a result of its work, the program creates a whole zip archive with Excel workbooks. One book with staff assignments for each day, and one book with overall results - Roster.xlsx. These are examples of worksheets from it.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The program uses a complex heuristic algorithm. She is looking for a good, but not entirely accurate solution to the problem. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(It will take too long to find the exact answer.)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Therefore, the results of work may differ from run to run. And you can run the program several times and choose the best result from your point of view.</t>
+    </r>
+  </si>
+  <si>
+    <t>There is only one setting in the program - the number of seconds that it spends on planning one work shift. The default time is 10 seconds. You can reduce it to 5 seconds if you work with small tasks or have a very fast computer, or increase it to 5 minutes if your tasks are large.</t>
+  </si>
+  <si>
+    <t>Each of the input data sheets contains a separate description.</t>
+  </si>
+  <si>
+    <t>The book contains test input data for the ShiftRoster program</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -850,6 +956,52 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -913,7 +1065,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1001,11 +1153,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1022,6 +1255,78 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1107,8 +1412,21 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1420,10 +1738,402 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7888EF26-905B-4A0D-A8E6-1AC881B9DF69}">
+  <dimension ref="B2:S29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="76" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+    </row>
+    <row r="3" spans="2:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="M4" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="31"/>
+    </row>
+    <row r="5" spans="2:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="73"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="34"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="73"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="34"/>
+    </row>
+    <row r="7" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="34"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M8" s="32"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="34"/>
+    </row>
+    <row r="9" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="34"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M10" s="32"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="34"/>
+    </row>
+    <row r="11" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="37"/>
+    </row>
+    <row r="13" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M14" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="22"/>
+    </row>
+    <row r="15" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="25"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M16" s="23"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="25"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M17" s="23"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="25"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M18" s="23"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="25"/>
+    </row>
+    <row r="19" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="28"/>
+    </row>
+    <row r="21" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="22"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="25"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="25"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E28" s="23"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="25"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E29" s="26"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="28"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="13">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="B5:J6"/>
+    <mergeCell ref="E25:K29"/>
+    <mergeCell ref="M4:S11"/>
+    <mergeCell ref="M14:S19"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="E19:K19"/>
+    <mergeCell ref="E21:K21"/>
+    <mergeCell ref="D13:K13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{EBBE9E75-DCD8-42B6-855F-1F7C935A12BF}"/>
+    <hyperlink ref="B9" location="Qualifications!A1" display="Qualifications" xr:uid="{2696FBC4-7870-42B0-AE0F-A02FBB1049B2}"/>
+    <hyperlink ref="B11" location="Personnel!A1" display="Personnel" xr:uid="{3AD69AEE-BB2D-4354-AEA6-A3E74D95C56C}"/>
+    <hyperlink ref="B13" location="DaysShifts!A1" display="DaysShifts" xr:uid="{21774B14-D78E-4EC8-8AD9-D16D0953482F}"/>
+    <hyperlink ref="B15" location="Restrictions!A1" display="Restrictions" xr:uid="{68355EBF-5312-4C7A-8E8D-B50CC4DAA215}"/>
+    <hyperlink ref="B19" location="RestrictedDaysShifts!A1" display="RestrictedDaysShifts" xr:uid="{8501BBB6-BC44-41C8-93B0-2512A22CD4A1}"/>
+    <hyperlink ref="B21" location="DesiredDaysShifts!A1" display="DesiredDaysShifts" xr:uid="{D69EB40C-FF5F-44DC-BBA5-59F9E5591925}"/>
+    <hyperlink ref="B25" location="'Result_Example(Personnel)'!A1" display="'Result_Example(Personnel)" xr:uid="{8E1264FC-5B56-4927-8D1D-4716617F4704}"/>
+    <hyperlink ref="B27" location="'Result_Example(Assigned)'!A1" display="Result_Example(Assigned)" xr:uid="{81A18C42-452A-466E-B9F2-0E29380EE856}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K241"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:K4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1463,11 +2173,11 @@
       <c r="E2">
         <v>2</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1485,13 +2195,13 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1509,11 +2219,11 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1575,13 +2285,13 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="59"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1599,11 +2309,11 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="31"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="59"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1621,11 +2331,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="31"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="59"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1665,13 +2375,13 @@
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="31"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1689,11 +2399,11 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="59"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1711,11 +2421,11 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="31"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="59"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1755,13 +2465,13 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="31"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1779,11 +2489,11 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="31"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="59"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -1801,11 +2511,11 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="31"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -1845,13 +2555,13 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="31"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="59"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -1869,11 +2579,11 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="31"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -1891,11 +2601,11 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="31"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="59"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -1935,13 +2645,13 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="44"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -1959,11 +2669,11 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="16"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="44"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1981,11 +2691,11 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="16"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="44"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -2003,11 +2713,11 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="19"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="47"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -5679,11 +6389,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5711,11 +6423,11 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -5727,13 +6439,13 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -5745,11 +6457,11 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -5761,13 +6473,13 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="34"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="62"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -5779,11 +6491,11 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -5795,11 +6507,11 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="34"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -5811,11 +6523,11 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -5827,13 +6539,13 @@
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="65"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -5845,11 +6557,11 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="37"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="65"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -5861,11 +6573,11 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="37"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="65"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -5877,11 +6589,11 @@
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="37"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -5893,11 +6605,11 @@
       <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -5925,13 +6637,13 @@
       <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -5943,11 +6655,11 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -5959,11 +6671,11 @@
       <c r="C17" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="44"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -5975,11 +6687,11 @@
       <c r="C18" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -6335,11 +7047,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6373,11 +7087,11 @@
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -6392,13 +7106,13 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -6413,11 +7127,11 @@
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -6470,13 +7184,13 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -6491,11 +7205,11 @@
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="31"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="59"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -6510,11 +7224,11 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="59"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -6548,13 +7262,13 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="59"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -6569,11 +7283,11 @@
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="59"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -6588,11 +7302,11 @@
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -6626,13 +7340,13 @@
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="59"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -6647,11 +7361,11 @@
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="31"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -6666,11 +7380,11 @@
       <c r="D17">
         <v>2</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="31"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="59"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -6704,13 +7418,13 @@
       <c r="D19">
         <v>2</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="31"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="59"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -6725,11 +7439,11 @@
       <c r="D20">
         <v>2</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="31"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="59"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -6744,11 +7458,11 @@
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="59"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -6782,13 +7496,13 @@
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="44"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -6803,11 +7517,11 @@
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="44"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -6822,11 +7536,11 @@
       <c r="D25">
         <v>2</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="44"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -6841,11 +7555,11 @@
       <c r="D26">
         <v>2</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="19"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="47"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -7180,14 +7894,17 @@
     <mergeCell ref="F7:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7215,11 +7932,11 @@
       <c r="C2">
         <v>3</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -7231,13 +7948,13 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -7249,11 +7966,11 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -7281,13 +7998,13 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -7299,94 +8016,94 @@
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F8" s="32"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="31"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="59"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="34"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="29"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="34"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11" s="29"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="34"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="62"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="59"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F13" s="32"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F14" s="32"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="31"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="59"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="44"/>
     </row>
     <row r="18" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7402,11 +8119,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7434,11 +8153,11 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -7450,13 +8169,13 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -7468,11 +8187,11 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -7500,13 +8219,13 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -7518,11 +8237,11 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -7534,11 +8253,11 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="31"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="59"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -7550,13 +8269,13 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="59"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -7568,11 +8287,11 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="59"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -7584,11 +8303,11 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="59"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -7600,13 +8319,13 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="59"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -7618,11 +8337,11 @@
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -7634,11 +8353,11 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="31"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="59"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -7650,13 +8369,13 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="68"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -7668,11 +8387,11 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="68"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -7684,11 +8403,11 @@
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="68"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -7700,13 +8419,13 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="44"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -7718,11 +8437,11 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -7734,11 +8453,11 @@
       <c r="C20">
         <v>3</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="44"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -7750,11 +8469,11 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -8251,14 +8970,17 @@
     <mergeCell ref="F15:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8280,11 +9002,11 @@
       <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -8293,13 +9015,13 @@
       <c r="B3" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -8308,11 +9030,11 @@
       <c r="B4" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -8321,13 +9043,13 @@
       <c r="B5" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="34"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="62"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -8336,11 +9058,11 @@
       <c r="B6" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -8349,11 +9071,11 @@
       <c r="B7" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="34"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -8362,11 +9084,11 @@
       <c r="B8" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -8382,34 +9104,34 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="34"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11" s="29"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="34"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="62"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="29"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="34"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F13" s="29"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="34"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="62"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" s="3"/>
@@ -8426,34 +9148,34 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="62"/>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F17" s="29"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="62"/>
     </row>
     <row r="18" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F18" s="29"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="34"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="62"/>
     </row>
     <row r="19" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F19" s="29"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="34"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="62"/>
     </row>
     <row r="20" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F20" s="3"/>
@@ -8463,34 +9185,34 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="44"/>
     </row>
     <row r="22" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="44"/>
     </row>
     <row r="23" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="44"/>
     </row>
     <row r="24" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="19"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8506,7 +9228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B1297F-91D1-4D2A-A61B-58A40BBABED7}">
   <dimension ref="A1:AF51"/>
   <sheetViews>
@@ -8523,56 +9245,56 @@
       <c r="A1" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44" t="s">
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="42" t="s">
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="44" t="s">
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="42" t="s">
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="44" t="s">
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="42" t="s">
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="44" t="s">
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="42" t="s">
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -13561,15 +14283,16 @@
     <mergeCell ref="AC1:AE1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE17242E-303C-4982-B5BC-AA94FE674A78}">
   <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16981,5 +17704,6 @@
   </sheetData>
   <autoFilter ref="A1:D243" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InputExample.xlsx
+++ b/InputExample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF7A52B-16E3-4436-BDD5-127D9F8C631D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14486E0-B863-49A4-97E3-AE32D5981292}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -842,6 +842,12 @@
     <t>In fact, as a result of its work, the program creates a whole zip archive with Excel workbooks. One book with staff assignments for each day, and one book with overall results - Roster.xlsx. These are examples of worksheets from it.</t>
   </si>
   <si>
+    <t>Each of the input data sheets contains a separate description.</t>
+  </si>
+  <si>
+    <t>The book contains test input data for the ShiftRoster program</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">The program uses a complex heuristic algorithm. She is looking for a good, but not entirely accurate solution to the problem. </t>
     </r>
@@ -865,24 +871,68 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Therefore, the results of work may differ from run to run. And you can run the program several times and choose the best result from your point of view.</t>
+      <t xml:space="preserve">
+Therefore, the results of work may differ from run to run. So, you can run the program several times and choose the best result. To automate this, the program has an option "Number of restarts".</t>
     </r>
   </si>
   <si>
-    <t>There is only one setting in the program - the number of seconds that it spends on planning one work shift. The default time is 10 seconds. You can reduce it to 5 seconds if you work with small tasks or have a very fast computer, or increase it to 5 minutes if your tasks are large.</t>
-  </si>
-  <si>
-    <t>Each of the input data sheets contains a separate description.</t>
-  </si>
-  <si>
-    <t>The book contains test input data for the ShiftRoster program</t>
+    <r>
+      <t>There is only one two settings in the program:
+“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Seconds per Shift</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” - the number of seconds that it spends on planning one work shift. The default time is 10 seconds. You can reduce it to 5 seconds if you work with small tasks or have a very fast computer, or increase it to 5 minutes if your tasks are large.
+“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Number of restarts</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">” - the program will execute the planning a specified number of times and select the best result. </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -997,6 +1047,15 @@
     <font>
       <i/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1238,7 +1297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1263,6 +1322,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1316,16 +1398,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1405,24 +1477,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1741,25 +1810,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7888EF26-905B-4A0D-A8E6-1AC881B9DF69}">
   <dimension ref="B2:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
+      <c r="B2" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="2:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="17"/>
@@ -1772,344 +1839,383 @@
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+    </row>
+    <row r="4" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="M4" s="29" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="M4" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="40"/>
+    </row>
+    <row r="5" spans="2:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="31"/>
-    </row>
-    <row r="5" spans="2:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="73"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="34"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="21"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="43"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="73"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="34"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="21"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="43"/>
     </row>
     <row r="7" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="34"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="43"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M8" s="32"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="34"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="43"/>
     </row>
     <row r="9" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="34"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="43"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M10" s="32"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="34"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="43"/>
     </row>
     <row r="11" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="37"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="46"/>
     </row>
     <row r="13" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M14" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="22"/>
+      <c r="M14" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="31"/>
     </row>
     <row r="15" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="34"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M16" s="23"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="25"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="34"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="M17" s="23"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="25"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="34"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M18" s="23"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="25"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="34"/>
     </row>
     <row r="19" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>128</v>
       </c>
       <c r="D19" s="18"/>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="28"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="34"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M20" s="41"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="43"/>
     </row>
     <row r="21" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
         <v>129</v>
       </c>
       <c r="D21" s="18"/>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="43"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="M22" s="41"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="43"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>130</v>
       </c>
+      <c r="M23" s="78"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="80"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="22"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="31"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="E26" s="23"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="25"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="25"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="34"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="E28" s="23"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="25"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="34"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="E29" s="26"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="28"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="37"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
+    <mergeCell ref="M4:S11"/>
+    <mergeCell ref="E25:K29"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="E19:K19"/>
+    <mergeCell ref="E21:K21"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="M14:S23"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="D9:K9"/>
     <mergeCell ref="D11:K11"/>
     <mergeCell ref="B5:J6"/>
-    <mergeCell ref="E25:K29"/>
-    <mergeCell ref="M4:S11"/>
-    <mergeCell ref="M14:S19"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="E19:K19"/>
-    <mergeCell ref="E21:K21"/>
-    <mergeCell ref="D13:K13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{EBBE9E75-DCD8-42B6-855F-1F7C935A12BF}"/>
@@ -2173,11 +2279,11 @@
       <c r="E2">
         <v>2</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2195,13 +2301,13 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2219,11 +2325,11 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -2285,13 +2391,13 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="59"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="64"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2309,11 +2415,11 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="59"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="64"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2331,11 +2437,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="64"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2375,13 +2481,13 @@
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="64"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2399,11 +2505,11 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="59"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="64"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2421,11 +2527,11 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="64"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -2465,13 +2571,13 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="64"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -2489,11 +2595,11 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="59"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="64"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -2511,11 +2617,11 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="G17" s="60"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="64"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -2555,13 +2661,13 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="G19" s="57" t="s">
+      <c r="G19" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="59"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="64"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -2579,11 +2685,11 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="G20" s="60"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="64"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -2601,11 +2707,11 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="59"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="64"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -2645,13 +2751,13 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="G23" s="42" t="s">
+      <c r="G23" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="44"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="49"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -2669,11 +2775,11 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="44"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="49"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -2691,11 +2797,11 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="44"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="49"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -2713,11 +2819,11 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="G26" s="45"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="47"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="52"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -6423,11 +6529,11 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -6439,13 +6545,13 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -6457,11 +6563,11 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -6473,13 +6579,13 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="62"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="67"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -6491,11 +6597,11 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="67"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -6507,11 +6613,11 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -6523,11 +6629,11 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -6539,13 +6645,13 @@
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="65"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -6557,11 +6663,11 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="66"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="65"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -6573,11 +6679,11 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="66"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="65"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="70"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -6589,11 +6695,11 @@
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="65"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="70"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -6605,11 +6711,11 @@
       <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="65"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -6637,13 +6743,13 @@
       <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -6655,11 +6761,11 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="44"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -6671,11 +6777,11 @@
       <c r="C17" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="44"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -6687,11 +6793,11 @@
       <c r="C18" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -7087,11 +7193,11 @@
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -7106,13 +7212,13 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -7127,11 +7233,11 @@
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -7184,13 +7290,13 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -7205,11 +7311,11 @@
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="64"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -7224,11 +7330,11 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="64"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -7262,13 +7368,13 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="64"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -7283,11 +7389,11 @@
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="F12" s="60"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="59"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="64"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -7302,11 +7408,11 @@
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="F13" s="60"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="64"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -7340,13 +7446,13 @@
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="59"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="64"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -7361,11 +7467,11 @@
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="F16" s="60"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="59"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -7380,11 +7486,11 @@
       <c r="D17">
         <v>2</v>
       </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="59"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="64"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -7418,13 +7524,13 @@
       <c r="D19">
         <v>2</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="59"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="64"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -7439,11 +7545,11 @@
       <c r="D20">
         <v>2</v>
       </c>
-      <c r="F20" s="60"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="59"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="64"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -7458,11 +7564,11 @@
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="F21" s="60"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="59"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="64"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -7496,13 +7602,13 @@
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="49"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -7517,11 +7623,11 @@
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="44"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="49"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -7536,11 +7642,11 @@
       <c r="D25">
         <v>2</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="44"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="49"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -7555,11 +7661,11 @@
       <c r="D26">
         <v>2</v>
       </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="47"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="52"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -7932,11 +8038,11 @@
       <c r="C2">
         <v>3</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -7948,13 +8054,13 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -7966,11 +8072,11 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -7998,13 +8104,13 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -8016,94 +8122,94 @@
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F8" s="60"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="64"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="62"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="57"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="67"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11" s="57"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="67"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="59"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="64"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F13" s="60"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="64"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F14" s="60"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="59"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="64"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="44"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="44"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
     </row>
     <row r="18" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8153,11 +8259,11 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -8169,13 +8275,13 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -8187,11 +8293,11 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -8219,13 +8325,13 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -8237,11 +8343,11 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -8253,11 +8359,11 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="64"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -8269,13 +8375,13 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="64"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -8287,11 +8393,11 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -8303,11 +8409,11 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="F11" s="60"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="64"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -8319,13 +8425,13 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="59"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="64"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -8337,11 +8443,11 @@
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="F13" s="60"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="64"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -8353,11 +8459,11 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="F14" s="60"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="59"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="64"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -8369,13 +8475,13 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="73"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -8387,11 +8493,11 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="F16" s="69"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="68"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="73"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -8403,11 +8509,11 @@
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="68"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="73"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -8419,13 +8525,13 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="F18" s="42" t="s">
+      <c r="F18" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="44"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="49"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -8437,11 +8543,11 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="44"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="49"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -8453,11 +8559,11 @@
       <c r="C20">
         <v>3</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="44"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="49"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -8469,11 +8575,11 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -9002,11 +9108,11 @@
       <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -9015,13 +9121,13 @@
       <c r="B3" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -9030,11 +9136,11 @@
       <c r="B4" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -9043,13 +9149,13 @@
       <c r="B5" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="62"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="67"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -9058,11 +9164,11 @@
       <c r="B6" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="67"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -9071,11 +9177,11 @@
       <c r="B7" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -9084,11 +9190,11 @@
       <c r="B8" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -9104,34 +9210,34 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="67"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11" s="57"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="67"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="57"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="67"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F13" s="57"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" s="3"/>
@@ -9148,34 +9254,34 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="62"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="67"/>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F17" s="57"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="67"/>
     </row>
     <row r="18" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F18" s="57"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="67"/>
     </row>
     <row r="19" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F19" s="57"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="67"/>
     </row>
     <row r="20" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F20" s="3"/>
@@ -9185,34 +9291,34 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="44"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="49"/>
     </row>
     <row r="22" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="44"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="49"/>
     </row>
     <row r="23" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F23" s="42"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="49"/>
     </row>
     <row r="24" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F24" s="45"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="47"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9245,56 +9351,56 @@
       <c r="A1" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="70" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="72" t="s">
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="70" t="s">
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="72" t="s">
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="70" t="s">
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="72" t="s">
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="70" t="s">
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="72" t="s">
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="70" t="s">
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -14271,16 +14377,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/InputExample.xlsx
+++ b/InputExample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14486E0-B863-49A4-97E3-AE32D5981292}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F21D0B-5F72-483E-9113-8FE07D5E3983}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -877,30 +877,7 @@
   </si>
   <si>
     <r>
-      <t>There is only one two settings in the program:
-“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Seconds per Shift</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>” - the number of seconds that it spends on planning one work shift. The default time is 10 seconds. You can reduce it to 5 seconds if you work with small tasks or have a very fast computer, or increase it to 5 minutes if your tasks are large.
+      <t>There is only one setting in the program:
 “</t>
     </r>
     <r>
@@ -924,7 +901,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">” - the program will execute the planning a specified number of times and select the best result. </t>
+      <t xml:space="preserve">” - the program will execute the planning a specified number of times and select the best result. 
+From 1 to 1000. Default value 10. </t>
     </r>
   </si>
 </sst>
@@ -1326,24 +1304,32 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1372,32 +1358,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1477,21 +1464,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1810,23 +1788,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7888EF26-905B-4A0D-A8E6-1AC881B9DF69}">
   <dimension ref="B2:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14:S23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
     </row>
     <row r="3" spans="2:19" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="17"/>
@@ -1851,358 +1831,364 @@
       <c r="B4" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="M4" s="38" t="s">
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="M4" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="40"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="24"/>
     </row>
     <row r="5" spans="2:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
       <c r="K5" s="21"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="43"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="27"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
       <c r="K6" s="21"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="43"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="27"/>
     </row>
     <row r="7" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="43"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="27"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M8" s="41"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="43"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="27"/>
     </row>
     <row r="9" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="43"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="27"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M10" s="41"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="43"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="27"/>
     </row>
     <row r="11" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="46"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="30"/>
     </row>
     <row r="13" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M14" s="29" t="s">
+      <c r="M14" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="31"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="33"/>
     </row>
     <row r="15" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="34"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="36"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M16" s="32"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="36"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="M17" s="32"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="36"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M18" s="32"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="36"/>
     </row>
     <row r="19" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>128</v>
       </c>
       <c r="D19" s="18"/>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="34"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="36"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M20" s="41"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="43"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="27"/>
     </row>
     <row r="21" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
         <v>129</v>
       </c>
       <c r="D21" s="18"/>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="43"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="27"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M22" s="41"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="43"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="27"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="M23" s="78"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="80"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="43"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="31"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="33"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="36"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="36"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="36"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="E29" s="35"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="39"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="B5:J6"/>
     <mergeCell ref="M4:S11"/>
     <mergeCell ref="E25:K29"/>
     <mergeCell ref="D15:K15"/>
@@ -2210,12 +2196,6 @@
     <mergeCell ref="E21:K21"/>
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="M14:S23"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="B5:J6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{EBBE9E75-DCD8-42B6-855F-1F7C935A12BF}"/>
@@ -2279,11 +2259,11 @@
       <c r="E2">
         <v>2</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2301,13 +2281,13 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2325,11 +2305,11 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="64"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -2391,13 +2371,13 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7" s="62" t="s">
+      <c r="G7" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="64"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2415,11 +2395,11 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="G8" s="65"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="64"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2437,11 +2417,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="G9" s="65"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="64"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2481,13 +2461,13 @@
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="G11" s="62" t="s">
+      <c r="G11" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="64"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2505,11 +2485,11 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="G12" s="65"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="64"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2527,11 +2507,11 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="G13" s="65"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="64"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -2571,13 +2551,13 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="G15" s="62" t="s">
+      <c r="G15" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="64"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="67"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -2595,11 +2575,11 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="G16" s="65"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="64"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="67"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -2617,11 +2597,11 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="G17" s="65"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="64"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="67"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -2661,13 +2641,13 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="G19" s="62" t="s">
+      <c r="G19" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="64"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="67"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -2685,11 +2665,11 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="G20" s="65"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="64"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="67"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -2707,11 +2687,11 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="G21" s="65"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="64"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="67"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -2751,13 +2731,13 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="49"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="52"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -2775,11 +2755,11 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="G24" s="47"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="49"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="52"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -2797,11 +2777,11 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="G25" s="47"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="49"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="52"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -2819,11 +2799,11 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="G26" s="50"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="52"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="55"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -6529,11 +6509,11 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -6545,13 +6525,13 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -6563,11 +6543,11 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="61"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -6579,13 +6559,13 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="67"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -6597,11 +6577,11 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="67"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="70"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -6613,11 +6593,11 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -6629,11 +6609,11 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="70"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -6645,13 +6625,13 @@
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="73"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -6663,11 +6643,11 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="73"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -6679,11 +6659,11 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="71"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="70"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="73"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -6695,11 +6675,11 @@
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="71"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="70"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -6711,11 +6691,11 @@
       <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="71"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="73"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -6743,13 +6723,13 @@
       <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="52"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -6761,11 +6741,11 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -6777,11 +6757,11 @@
       <c r="C17" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -6793,11 +6773,11 @@
       <c r="C18" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -7193,11 +7173,11 @@
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -7212,13 +7192,13 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -7233,11 +7213,11 @@
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="61"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -7290,13 +7270,13 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -7311,11 +7291,11 @@
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="F8" s="65"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -7330,11 +7310,11 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="F9" s="65"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -7368,13 +7348,13 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="67"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -7389,11 +7369,11 @@
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="F12" s="65"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="67"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -7408,11 +7388,11 @@
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -7446,13 +7426,13 @@
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="F15" s="62" t="s">
+      <c r="F15" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -7467,11 +7447,11 @@
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="F16" s="65"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="67"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -7486,11 +7466,11 @@
       <c r="D17">
         <v>2</v>
       </c>
-      <c r="F17" s="65"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="67"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -7524,13 +7504,13 @@
       <c r="D19">
         <v>2</v>
       </c>
-      <c r="F19" s="62" t="s">
+      <c r="F19" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="64"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="67"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -7545,11 +7525,11 @@
       <c r="D20">
         <v>2</v>
       </c>
-      <c r="F20" s="65"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="64"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="67"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -7564,11 +7544,11 @@
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="F21" s="65"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="64"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="67"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -7602,13 +7582,13 @@
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="F23" s="47" t="s">
+      <c r="F23" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="49"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -7623,11 +7603,11 @@
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="49"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -7642,11 +7622,11 @@
       <c r="D25">
         <v>2</v>
       </c>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="52"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -7661,11 +7641,11 @@
       <c r="D26">
         <v>2</v>
       </c>
-      <c r="F26" s="50"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="52"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="55"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -8038,11 +8018,11 @@
       <c r="C2">
         <v>3</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -8054,13 +8034,13 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -8072,11 +8052,11 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="61"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -8104,13 +8084,13 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="67"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -8122,94 +8102,94 @@
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="F7" s="65"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F8" s="65"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="67"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="62"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="67"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11" s="62"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="67"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="70"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="62" t="s">
+      <c r="F12" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="67"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F13" s="65"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F14" s="65"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="67"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="52"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
     </row>
     <row r="18" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8259,11 +8239,11 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -8275,13 +8255,13 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -8293,11 +8273,11 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="61"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -8325,13 +8305,13 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="67"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -8343,11 +8323,11 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="F7" s="65"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -8359,11 +8339,11 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="F8" s="65"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -8375,13 +8355,13 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -8393,11 +8373,11 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="F10" s="65"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="67"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -8409,11 +8389,11 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="67"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -8425,13 +8405,13 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="F12" s="62" t="s">
+      <c r="F12" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="67"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -8443,11 +8423,11 @@
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -8459,11 +8439,11 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="67"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -8475,13 +8455,13 @@
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="73"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="76"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -8493,11 +8473,11 @@
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="F16" s="74"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="73"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="76"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -8509,11 +8489,11 @@
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="F17" s="74"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="73"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="76"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -8525,13 +8505,13 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="49"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -8543,11 +8523,11 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -8559,11 +8539,11 @@
       <c r="C20">
         <v>3</v>
       </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -8575,11 +8555,11 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="52"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="55"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -9108,11 +9088,11 @@
       <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -9121,13 +9101,13 @@
       <c r="B3" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -9136,11 +9116,11 @@
       <c r="B4" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="61"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -9149,13 +9129,13 @@
       <c r="B5" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="67"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -9164,11 +9144,11 @@
       <c r="B6" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="67"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="70"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -9177,11 +9157,11 @@
       <c r="B7" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -9190,11 +9170,11 @@
       <c r="B8" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="70"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -9210,34 +9190,34 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="62" t="s">
+      <c r="F10" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="67"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11" s="62"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="67"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="70"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="62"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="67"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="70"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F13" s="62"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="67"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" s="3"/>
@@ -9254,34 +9234,34 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="67"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="70"/>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F17" s="62"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="67"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="70"/>
     </row>
     <row r="18" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F18" s="62"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="67"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="70"/>
     </row>
     <row r="19" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F19" s="62"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="67"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="70"/>
     </row>
     <row r="20" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F20" s="3"/>
@@ -9291,34 +9271,34 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="49"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
     </row>
     <row r="22" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
     </row>
     <row r="23" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
     </row>
     <row r="24" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F24" s="50"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="52"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9351,56 +9331,56 @@
       <c r="A1" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="77" t="s">
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="75" t="s">
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="77" t="s">
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="75" t="s">
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="77" t="s">
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="75" t="s">
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="77" t="s">
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="75" t="s">
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="77" t="s">
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -14377,16 +14357,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/InputExample.xlsx
+++ b/InputExample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB7A7FE-C4DE-4B41-B972-B09173A30510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A6B8E5-9E37-4842-B372-A53364E2A30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="147">
   <si>
     <t>Day number</t>
   </si>
@@ -753,72 +753,6 @@
     <t>Fryday W2</t>
   </si>
   <si>
-    <t>Fryday W3</t>
-  </si>
-  <si>
-    <t>Fryday W4</t>
-  </si>
-  <si>
-    <t>Fryday W5</t>
-  </si>
-  <si>
-    <t>Fryday W6</t>
-  </si>
-  <si>
-    <t>Fryday W7</t>
-  </si>
-  <si>
-    <t>Fryday W8</t>
-  </si>
-  <si>
-    <t>Fryday W9</t>
-  </si>
-  <si>
-    <t>Fryday W10</t>
-  </si>
-  <si>
-    <t>Fryday W11</t>
-  </si>
-  <si>
-    <t>Fryday W12</t>
-  </si>
-  <si>
-    <t>Fryday W13</t>
-  </si>
-  <si>
-    <t>Fryday W14</t>
-  </si>
-  <si>
-    <t>Fryday W15</t>
-  </si>
-  <si>
-    <t>Fryday W16</t>
-  </si>
-  <si>
-    <t>Fryday W17</t>
-  </si>
-  <si>
-    <t>Fryday W18</t>
-  </si>
-  <si>
-    <t>Fryday W19</t>
-  </si>
-  <si>
-    <t>Fryday W20</t>
-  </si>
-  <si>
-    <t>Fryday W21</t>
-  </si>
-  <si>
-    <t>Fryday W22</t>
-  </si>
-  <si>
-    <t>Fryday W23</t>
-  </si>
-  <si>
-    <t>Fryday W24</t>
-  </si>
-  <si>
     <t>Monday W2</t>
   </si>
   <si>
@@ -1420,25 +1354,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1493,6 +1408,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
@@ -1501,6 +1417,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1598,11 +1532,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1927,18 +1861,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
@@ -1963,358 +1897,364 @@
       <c r="B4" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="M4" s="39" t="s">
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="M4" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="41"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="34"/>
     </row>
     <row r="5" spans="2:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="18"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="44"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="37"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
       <c r="K6" s="18"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="44"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="37"/>
     </row>
     <row r="7" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="44"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="37"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M8" s="42"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="44"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="37"/>
     </row>
     <row r="9" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="44"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="37"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M10" s="42"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="44"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="37"/>
     </row>
     <row r="11" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="47"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="40"/>
     </row>
     <row r="13" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M14" s="48" t="s">
+      <c r="M14" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="50"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="43"/>
     </row>
     <row r="15" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="53"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="46"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M16" s="51"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="53"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="46"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="M17" s="51"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="53"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="46"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M18" s="51"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="53"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="46"/>
     </row>
     <row r="19" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>70</v>
       </c>
       <c r="D19" s="15"/>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="53"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="46"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M20" s="42"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="44"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="37"/>
     </row>
     <row r="21" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D21" s="15"/>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="44"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="37"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M22" s="42"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="44"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="37"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="M23" s="57"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="59"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="53"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="50"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="43"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="53"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="46"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="46"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="E28" s="51"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="53"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="46"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="E29" s="54"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="56"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="49"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="B5:J6"/>
     <mergeCell ref="M4:S11"/>
     <mergeCell ref="E25:K29"/>
     <mergeCell ref="D15:K15"/>
@@ -2322,12 +2262,6 @@
     <mergeCell ref="E21:K21"/>
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="M14:S23"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="B5:J6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{EBBE9E75-DCD8-42B6-855F-1F7C935A12BF}"/>
@@ -3009,7 +2943,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="82" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="H30" s="83"/>
       <c r="I30" s="83"/>
@@ -3077,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="60" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="H33" s="61"/>
       <c r="I33" s="61"/>
@@ -3145,7 +3079,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="60" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="H36" s="61"/>
       <c r="I36" s="61"/>
@@ -3213,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="60" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="H39" s="61"/>
       <c r="I39" s="61"/>
@@ -3281,7 +3215,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="60" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="H42" s="61"/>
       <c r="I42" s="61"/>
@@ -4260,7 +4194,7 @@
         <v>5</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C99" s="27">
         <v>1</v>
@@ -4277,7 +4211,7 @@
         <v>5</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C100" s="27">
         <v>1</v>
@@ -4294,7 +4228,7 @@
         <v>5</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C101" s="27">
         <v>1</v>
@@ -4311,7 +4245,7 @@
         <v>5</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C102" s="27">
         <v>1</v>
@@ -4328,7 +4262,7 @@
         <v>5</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C103" s="27">
         <v>1</v>
@@ -4345,7 +4279,7 @@
         <v>5</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C104" s="27">
         <v>1</v>
@@ -4362,7 +4296,7 @@
         <v>5</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C105" s="27">
         <v>1</v>
@@ -4379,7 +4313,7 @@
         <v>5</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C106" s="27">
         <v>2</v>
@@ -4396,7 +4330,7 @@
         <v>5</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C107" s="27">
         <v>2</v>
@@ -4413,7 +4347,7 @@
         <v>5</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C108" s="27">
         <v>2</v>
@@ -4430,7 +4364,7 @@
         <v>5</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C109" s="27">
         <v>2</v>
@@ -4447,7 +4381,7 @@
         <v>5</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C110" s="27">
         <v>2</v>
@@ -4464,7 +4398,7 @@
         <v>5</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C111" s="27">
         <v>2</v>
@@ -4481,7 +4415,7 @@
         <v>5</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C112" s="27">
         <v>2</v>
@@ -4498,7 +4432,7 @@
         <v>5</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C113" s="27">
         <v>2</v>
@@ -4515,7 +4449,7 @@
         <v>5</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C114" s="27">
         <v>3</v>
@@ -4532,7 +4466,7 @@
         <v>5</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C115" s="27">
         <v>3</v>
@@ -4549,7 +4483,7 @@
         <v>5</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C116" s="27">
         <v>3</v>
@@ -4566,7 +4500,7 @@
         <v>5</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C117" s="27">
         <v>3</v>
@@ -4583,7 +4517,7 @@
         <v>5</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C118" s="27">
         <v>3</v>
@@ -4600,7 +4534,7 @@
         <v>5</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C119" s="27">
         <v>3</v>
@@ -4617,7 +4551,7 @@
         <v>5</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C120" s="27">
         <v>3</v>
@@ -4634,7 +4568,7 @@
         <v>5</v>
       </c>
       <c r="B121" s="28" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C121" s="27">
         <v>3</v>
@@ -4651,7 +4585,7 @@
         <v>6</v>
       </c>
       <c r="B122" s="28" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C122" s="27">
         <v>1</v>
@@ -4668,7 +4602,7 @@
         <v>6</v>
       </c>
       <c r="B123" s="28" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C123" s="27">
         <v>1</v>
@@ -4685,7 +4619,7 @@
         <v>6</v>
       </c>
       <c r="B124" s="28" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C124" s="27">
         <v>1</v>
@@ -4702,7 +4636,7 @@
         <v>6</v>
       </c>
       <c r="B125" s="28" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C125" s="27">
         <v>1</v>
@@ -4719,7 +4653,7 @@
         <v>6</v>
       </c>
       <c r="B126" s="28" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C126" s="27">
         <v>1</v>
@@ -4736,7 +4670,7 @@
         <v>6</v>
       </c>
       <c r="B127" s="28" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C127" s="27">
         <v>1</v>
@@ -4753,7 +4687,7 @@
         <v>6</v>
       </c>
       <c r="B128" s="28" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C128" s="27">
         <v>1</v>
@@ -4770,7 +4704,7 @@
         <v>6</v>
       </c>
       <c r="B129" s="28" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C129" s="27">
         <v>1</v>
@@ -4787,7 +4721,7 @@
         <v>6</v>
       </c>
       <c r="B130" s="28" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C130" s="27">
         <v>2</v>
@@ -4804,7 +4738,7 @@
         <v>6</v>
       </c>
       <c r="B131" s="28" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C131" s="27">
         <v>2</v>
@@ -4821,7 +4755,7 @@
         <v>6</v>
       </c>
       <c r="B132" s="28" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C132" s="27">
         <v>2</v>
@@ -4838,7 +4772,7 @@
         <v>6</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C133" s="27">
         <v>2</v>
@@ -4855,7 +4789,7 @@
         <v>6</v>
       </c>
       <c r="B134" s="28" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C134" s="27">
         <v>2</v>
@@ -4872,7 +4806,7 @@
         <v>6</v>
       </c>
       <c r="B135" s="28" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C135" s="27">
         <v>2</v>
@@ -4889,7 +4823,7 @@
         <v>6</v>
       </c>
       <c r="B136" s="28" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C136" s="27">
         <v>2</v>
@@ -4906,7 +4840,7 @@
         <v>6</v>
       </c>
       <c r="B137" s="28" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C137" s="27">
         <v>2</v>
@@ -4923,7 +4857,7 @@
         <v>6</v>
       </c>
       <c r="B138" s="28" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C138" s="27">
         <v>3</v>
@@ -4940,7 +4874,7 @@
         <v>6</v>
       </c>
       <c r="B139" s="28" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C139" s="27">
         <v>3</v>
@@ -4957,7 +4891,7 @@
         <v>6</v>
       </c>
       <c r="B140" s="28" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C140" s="27">
         <v>3</v>
@@ -4974,7 +4908,7 @@
         <v>6</v>
       </c>
       <c r="B141" s="28" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C141" s="27">
         <v>3</v>
@@ -4991,7 +4925,7 @@
         <v>6</v>
       </c>
       <c r="B142" s="28" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C142" s="27">
         <v>3</v>
@@ -5008,7 +4942,7 @@
         <v>6</v>
       </c>
       <c r="B143" s="28" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C143" s="27">
         <v>3</v>
@@ -5025,7 +4959,7 @@
         <v>6</v>
       </c>
       <c r="B144" s="28" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C144" s="27">
         <v>3</v>
@@ -5042,7 +4976,7 @@
         <v>6</v>
       </c>
       <c r="B145" s="28" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C145" s="27">
         <v>3</v>
@@ -5059,7 +4993,7 @@
         <v>7</v>
       </c>
       <c r="B146" s="28" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C146" s="27">
         <v>1</v>
@@ -5076,7 +5010,7 @@
         <v>7</v>
       </c>
       <c r="B147" s="28" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C147" s="27">
         <v>1</v>
@@ -5093,7 +5027,7 @@
         <v>7</v>
       </c>
       <c r="B148" s="28" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C148" s="27">
         <v>1</v>
@@ -5110,7 +5044,7 @@
         <v>7</v>
       </c>
       <c r="B149" s="28" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C149" s="27">
         <v>1</v>
@@ -5127,7 +5061,7 @@
         <v>7</v>
       </c>
       <c r="B150" s="28" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C150" s="27">
         <v>1</v>
@@ -5144,7 +5078,7 @@
         <v>7</v>
       </c>
       <c r="B151" s="28" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C151" s="27">
         <v>1</v>
@@ -5161,7 +5095,7 @@
         <v>7</v>
       </c>
       <c r="B152" s="28" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C152" s="27">
         <v>1</v>
@@ -5178,7 +5112,7 @@
         <v>7</v>
       </c>
       <c r="B153" s="28" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C153" s="27">
         <v>1</v>
@@ -5195,7 +5129,7 @@
         <v>7</v>
       </c>
       <c r="B154" s="28" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C154" s="27">
         <v>2</v>
@@ -5212,7 +5146,7 @@
         <v>7</v>
       </c>
       <c r="B155" s="28" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C155" s="27">
         <v>2</v>
@@ -5229,7 +5163,7 @@
         <v>7</v>
       </c>
       <c r="B156" s="28" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C156" s="27">
         <v>2</v>
@@ -5246,7 +5180,7 @@
         <v>7</v>
       </c>
       <c r="B157" s="28" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C157" s="27">
         <v>2</v>
@@ -5263,7 +5197,7 @@
         <v>7</v>
       </c>
       <c r="B158" s="28" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C158" s="27">
         <v>2</v>
@@ -5280,7 +5214,7 @@
         <v>7</v>
       </c>
       <c r="B159" s="28" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C159" s="27">
         <v>2</v>
@@ -5297,7 +5231,7 @@
         <v>7</v>
       </c>
       <c r="B160" s="28" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C160" s="27">
         <v>2</v>
@@ -5314,7 +5248,7 @@
         <v>7</v>
       </c>
       <c r="B161" s="28" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C161" s="27">
         <v>2</v>
@@ -5331,7 +5265,7 @@
         <v>7</v>
       </c>
       <c r="B162" s="28" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C162" s="27">
         <v>3</v>
@@ -5348,7 +5282,7 @@
         <v>7</v>
       </c>
       <c r="B163" s="28" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C163" s="27">
         <v>3</v>
@@ -5365,7 +5299,7 @@
         <v>7</v>
       </c>
       <c r="B164" s="28" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C164" s="27">
         <v>3</v>
@@ -5382,7 +5316,7 @@
         <v>7</v>
       </c>
       <c r="B165" s="28" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C165" s="27">
         <v>3</v>
@@ -5399,7 +5333,7 @@
         <v>7</v>
       </c>
       <c r="B166" s="28" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C166" s="27">
         <v>3</v>
@@ -5416,7 +5350,7 @@
         <v>7</v>
       </c>
       <c r="B167" s="28" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C167" s="27">
         <v>3</v>
@@ -5433,7 +5367,7 @@
         <v>7</v>
       </c>
       <c r="B168" s="28" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C168" s="27">
         <v>3</v>
@@ -5450,7 +5384,7 @@
         <v>7</v>
       </c>
       <c r="B169" s="28" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C169" s="27">
         <v>3</v>
@@ -5467,7 +5401,7 @@
         <v>8</v>
       </c>
       <c r="B170" s="28" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C170" s="27">
         <v>1</v>
@@ -5484,7 +5418,7 @@
         <v>8</v>
       </c>
       <c r="B171" s="28" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C171" s="27">
         <v>1</v>
@@ -5501,7 +5435,7 @@
         <v>8</v>
       </c>
       <c r="B172" s="28" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C172" s="27">
         <v>1</v>
@@ -5518,7 +5452,7 @@
         <v>8</v>
       </c>
       <c r="B173" s="28" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C173" s="27">
         <v>1</v>
@@ -5535,7 +5469,7 @@
         <v>8</v>
       </c>
       <c r="B174" s="28" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C174" s="27">
         <v>1</v>
@@ -5552,7 +5486,7 @@
         <v>8</v>
       </c>
       <c r="B175" s="28" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C175" s="27">
         <v>1</v>
@@ -5569,7 +5503,7 @@
         <v>8</v>
       </c>
       <c r="B176" s="28" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C176" s="27">
         <v>1</v>
@@ -5586,7 +5520,7 @@
         <v>8</v>
       </c>
       <c r="B177" s="28" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C177" s="27">
         <v>1</v>
@@ -5603,7 +5537,7 @@
         <v>8</v>
       </c>
       <c r="B178" s="28" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C178" s="27">
         <v>2</v>
@@ -5620,7 +5554,7 @@
         <v>8</v>
       </c>
       <c r="B179" s="28" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C179" s="27">
         <v>2</v>
@@ -5637,7 +5571,7 @@
         <v>8</v>
       </c>
       <c r="B180" s="28" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C180" s="27">
         <v>2</v>
@@ -5654,7 +5588,7 @@
         <v>8</v>
       </c>
       <c r="B181" s="28" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C181" s="27">
         <v>2</v>
@@ -5671,7 +5605,7 @@
         <v>8</v>
       </c>
       <c r="B182" s="28" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C182" s="27">
         <v>2</v>
@@ -5688,7 +5622,7 @@
         <v>8</v>
       </c>
       <c r="B183" s="28" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C183" s="27">
         <v>2</v>
@@ -5705,7 +5639,7 @@
         <v>8</v>
       </c>
       <c r="B184" s="28" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C184" s="27">
         <v>2</v>
@@ -5722,7 +5656,7 @@
         <v>8</v>
       </c>
       <c r="B185" s="28" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C185" s="27">
         <v>2</v>
@@ -5739,7 +5673,7 @@
         <v>8</v>
       </c>
       <c r="B186" s="28" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C186" s="27">
         <v>3</v>
@@ -5756,7 +5690,7 @@
         <v>8</v>
       </c>
       <c r="B187" s="28" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C187" s="27">
         <v>3</v>
@@ -5773,7 +5707,7 @@
         <v>8</v>
       </c>
       <c r="B188" s="28" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C188" s="27">
         <v>3</v>
@@ -5790,7 +5724,7 @@
         <v>8</v>
       </c>
       <c r="B189" s="28" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C189" s="27">
         <v>3</v>
@@ -5807,7 +5741,7 @@
         <v>8</v>
       </c>
       <c r="B190" s="28" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C190" s="27">
         <v>3</v>
@@ -5824,7 +5758,7 @@
         <v>8</v>
       </c>
       <c r="B191" s="28" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C191" s="27">
         <v>3</v>
@@ -5841,7 +5775,7 @@
         <v>8</v>
       </c>
       <c r="B192" s="28" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C192" s="27">
         <v>3</v>
@@ -5858,7 +5792,7 @@
         <v>8</v>
       </c>
       <c r="B193" s="28" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C193" s="27">
         <v>3</v>
@@ -5875,7 +5809,7 @@
         <v>9</v>
       </c>
       <c r="B194" s="27" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C194" s="27">
         <v>1</v>
@@ -5892,7 +5826,7 @@
         <v>9</v>
       </c>
       <c r="B195" s="27" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C195" s="27">
         <v>1</v>
@@ -5909,7 +5843,7 @@
         <v>9</v>
       </c>
       <c r="B196" s="27" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C196" s="27">
         <v>1</v>
@@ -5926,7 +5860,7 @@
         <v>9</v>
       </c>
       <c r="B197" s="27" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C197" s="27">
         <v>1</v>
@@ -5943,7 +5877,7 @@
         <v>9</v>
       </c>
       <c r="B198" s="27" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C198" s="27">
         <v>1</v>
@@ -5960,7 +5894,7 @@
         <v>9</v>
       </c>
       <c r="B199" s="27" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C199" s="27">
         <v>1</v>
@@ -5977,7 +5911,7 @@
         <v>9</v>
       </c>
       <c r="B200" s="27" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C200" s="27">
         <v>1</v>
@@ -5994,7 +5928,7 @@
         <v>9</v>
       </c>
       <c r="B201" s="27" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C201" s="27">
         <v>1</v>
@@ -6011,7 +5945,7 @@
         <v>9</v>
       </c>
       <c r="B202" s="27" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C202" s="27">
         <v>2</v>
@@ -6028,7 +5962,7 @@
         <v>9</v>
       </c>
       <c r="B203" s="27" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C203" s="27">
         <v>2</v>
@@ -6045,7 +5979,7 @@
         <v>9</v>
       </c>
       <c r="B204" s="27" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C204" s="27">
         <v>2</v>
@@ -6062,7 +5996,7 @@
         <v>9</v>
       </c>
       <c r="B205" s="27" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C205" s="27">
         <v>2</v>
@@ -6079,7 +6013,7 @@
         <v>9</v>
       </c>
       <c r="B206" s="27" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C206" s="27">
         <v>2</v>
@@ -6096,7 +6030,7 @@
         <v>9</v>
       </c>
       <c r="B207" s="27" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C207" s="27">
         <v>2</v>
@@ -6113,7 +6047,7 @@
         <v>9</v>
       </c>
       <c r="B208" s="27" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C208" s="27">
         <v>2</v>
@@ -6130,7 +6064,7 @@
         <v>9</v>
       </c>
       <c r="B209" s="27" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C209" s="27">
         <v>2</v>
@@ -6147,7 +6081,7 @@
         <v>9</v>
       </c>
       <c r="B210" s="27" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C210" s="27">
         <v>3</v>
@@ -6164,7 +6098,7 @@
         <v>9</v>
       </c>
       <c r="B211" s="27" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C211" s="27">
         <v>3</v>
@@ -6181,7 +6115,7 @@
         <v>9</v>
       </c>
       <c r="B212" s="27" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C212" s="27">
         <v>3</v>
@@ -6198,7 +6132,7 @@
         <v>9</v>
       </c>
       <c r="B213" s="27" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C213" s="27">
         <v>3</v>
@@ -6215,7 +6149,7 @@
         <v>9</v>
       </c>
       <c r="B214" s="27" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C214" s="27">
         <v>3</v>
@@ -6232,7 +6166,7 @@
         <v>9</v>
       </c>
       <c r="B215" s="27" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C215" s="27">
         <v>3</v>
@@ -6249,7 +6183,7 @@
         <v>9</v>
       </c>
       <c r="B216" s="27" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C216" s="27">
         <v>3</v>
@@ -6266,7 +6200,7 @@
         <v>9</v>
       </c>
       <c r="B217" s="27" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C217" s="27">
         <v>3</v>
@@ -6737,7 +6671,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>5</v>
@@ -6753,7 +6687,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>5</v>
@@ -6771,7 +6705,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>5</v>
@@ -6787,7 +6721,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>5</v>
@@ -6805,7 +6739,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>5</v>
@@ -6821,7 +6755,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>5</v>
@@ -6837,7 +6771,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>6</v>
@@ -6853,7 +6787,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>6</v>
@@ -6871,7 +6805,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>6</v>
@@ -6887,7 +6821,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>6</v>
@@ -6903,7 +6837,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>6</v>
@@ -6919,7 +6853,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>6</v>
@@ -6935,7 +6869,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>7</v>
@@ -6951,7 +6885,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>7</v>
@@ -6969,7 +6903,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>7</v>
@@ -6985,7 +6919,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>7</v>
@@ -7001,7 +6935,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>7</v>
@@ -7017,7 +6951,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>7</v>
@@ -7028,7 +6962,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>8</v>
@@ -7039,7 +6973,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>8</v>
@@ -7050,7 +6984,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>8</v>
@@ -7061,7 +6995,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C23" s="27" t="s">
         <v>8</v>
@@ -7072,7 +7006,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C24" s="27" t="s">
         <v>8</v>
@@ -7083,7 +7017,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>8</v>
@@ -7094,7 +7028,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C26" s="27" t="s">
         <v>9</v>
@@ -7105,7 +7039,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C27" s="27" t="s">
         <v>9</v>
@@ -7116,7 +7050,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="C28" s="27" t="s">
         <v>9</v>
@@ -7127,7 +7061,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>9</v>
@@ -7138,7 +7072,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C30" s="27" t="s">
         <v>9</v>
@@ -7149,7 +7083,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C31" s="27" t="s">
         <v>9</v>
@@ -7160,7 +7094,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>10</v>
@@ -7171,7 +7105,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>10</v>
@@ -7182,7 +7116,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>10</v>
@@ -7193,7 +7127,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>10</v>
@@ -7204,7 +7138,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>10</v>
@@ -7215,7 +7149,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>10</v>
@@ -7226,7 +7160,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>11</v>
@@ -7237,7 +7171,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>11</v>
@@ -7248,7 +7182,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>11</v>
@@ -7259,7 +7193,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C41" s="27" t="s">
         <v>11</v>
@@ -7270,7 +7204,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C42" s="27" t="s">
         <v>11</v>
@@ -7281,7 +7215,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="C43" s="27" t="s">
         <v>11</v>
@@ -7292,7 +7226,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="C44" s="27" t="s">
         <v>12</v>
@@ -7303,7 +7237,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="C45" s="27" t="s">
         <v>12</v>
@@ -7314,7 +7248,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="C46" s="27" t="s">
         <v>12</v>
@@ -7325,7 +7259,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="C47" s="27" t="s">
         <v>12</v>
@@ -7336,7 +7270,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="C48" s="27" t="s">
         <v>12</v>
@@ -7347,7 +7281,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C49" s="27" t="s">
         <v>12</v>
@@ -9566,52 +9500,52 @@
       <c r="A1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>84</v>
       </c>
       <c r="C1" s="95"/>
       <c r="D1" s="95"/>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="94" t="s">
         <v>85</v>
       </c>
       <c r="F1" s="95"/>
       <c r="G1" s="95"/>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="96" t="s">
         <v>86</v>
       </c>
       <c r="I1" s="95"/>
       <c r="J1" s="95"/>
-      <c r="K1" s="96" t="s">
+      <c r="K1" s="94" t="s">
         <v>87</v>
       </c>
       <c r="L1" s="95"/>
       <c r="M1" s="95"/>
-      <c r="N1" s="94" t="s">
+      <c r="N1" s="96" t="s">
         <v>88</v>
       </c>
       <c r="O1" s="95"/>
       <c r="P1" s="95"/>
-      <c r="Q1" s="96" t="s">
-        <v>112</v>
+      <c r="Q1" s="94" t="s">
+        <v>90</v>
       </c>
       <c r="R1" s="95"/>
       <c r="S1" s="95"/>
-      <c r="T1" s="94" t="s">
-        <v>113</v>
+      <c r="T1" s="96" t="s">
+        <v>91</v>
       </c>
       <c r="U1" s="95"/>
       <c r="V1" s="95"/>
-      <c r="W1" s="96" t="s">
-        <v>114</v>
+      <c r="W1" s="94" t="s">
+        <v>92</v>
       </c>
       <c r="X1" s="95"/>
       <c r="Y1" s="95"/>
-      <c r="Z1" s="94" t="s">
-        <v>115</v>
+      <c r="Z1" s="96" t="s">
+        <v>93</v>
       </c>
       <c r="AA1" s="95"/>
       <c r="AB1" s="95"/>
-      <c r="AC1" s="96" t="s">
+      <c r="AC1" s="94" t="s">
         <v>89</v>
       </c>
       <c r="AD1" s="95"/>
@@ -9714,7 +9648,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B3" s="7">
         <v>0</v>
@@ -9813,7 +9747,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -9912,7 +9846,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
@@ -10011,7 +9945,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
@@ -10110,7 +10044,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
@@ -10209,7 +10143,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -10308,7 +10242,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B9" s="7">
         <v>0</v>
@@ -10407,7 +10341,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -10506,7 +10440,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B11" s="7">
         <v>0</v>
@@ -10605,7 +10539,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
@@ -10704,7 +10638,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B13" s="7">
         <v>0</v>
@@ -10803,7 +10737,7 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B14" s="4">
         <v>0</v>
@@ -10902,7 +10836,7 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B15" s="7">
         <v>0</v>
@@ -11001,7 +10935,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B16" s="4">
         <v>0</v>
@@ -11100,7 +11034,7 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B17" s="7">
         <v>0</v>
@@ -11199,7 +11133,7 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B18" s="4">
         <v>0</v>
@@ -11298,7 +11232,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B19" s="5">
         <v>1</v>
@@ -11397,7 +11331,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
@@ -11496,7 +11430,7 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B21" s="5">
         <v>1</v>
@@ -11595,7 +11529,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B22" s="4">
         <v>0</v>
@@ -11694,7 +11628,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B23" s="7">
         <v>0</v>
@@ -11793,7 +11727,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B24" s="4">
         <v>0</v>
@@ -11892,7 +11826,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="B25" s="7">
         <v>0</v>
@@ -11991,7 +11925,7 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B26" s="4">
         <v>0</v>
@@ -12090,7 +12024,7 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B27" s="7">
         <v>0</v>
@@ -12189,7 +12123,7 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="B28" s="5">
         <v>1</v>
@@ -12288,7 +12222,7 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B29" s="7">
         <v>0</v>
@@ -12387,7 +12321,7 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B30" s="4">
         <v>0</v>
@@ -12486,7 +12420,7 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B31" s="7">
         <v>0</v>
@@ -12585,7 +12519,7 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B32" s="4">
         <v>0</v>
@@ -12684,7 +12618,7 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B33" s="7">
         <v>0</v>
@@ -12783,7 +12717,7 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="B34" s="4">
         <v>0</v>
@@ -12882,7 +12816,7 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="B35" s="7">
         <v>0</v>
@@ -12981,7 +12915,7 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B36" s="5">
         <v>1</v>
@@ -13080,7 +13014,7 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B37" s="7">
         <v>0</v>
@@ -13179,7 +13113,7 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B38" s="4">
         <v>0</v>
@@ -13278,7 +13212,7 @@
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="B39" s="7">
         <v>0</v>
@@ -13377,7 +13311,7 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B40" s="4">
         <v>0</v>
@@ -13476,7 +13410,7 @@
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B41" s="7">
         <v>0</v>
@@ -13575,7 +13509,7 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B42" s="4">
         <v>0</v>
@@ -13674,7 +13608,7 @@
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B43" s="5">
         <v>1</v>
@@ -13773,7 +13707,7 @@
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B44" s="4">
         <v>0</v>
@@ -13872,7 +13806,7 @@
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B45" s="7">
         <v>0</v>
@@ -13971,7 +13905,7 @@
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="B46" s="4">
         <v>0</v>
@@ -14070,7 +14004,7 @@
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B47" s="7">
         <v>0</v>
@@ -14169,7 +14103,7 @@
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="B48" s="4">
         <v>0</v>
@@ -14268,7 +14202,7 @@
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B49" s="5">
         <v>1</v>
@@ -14367,7 +14301,7 @@
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="B50" s="4">
         <v>0</v>
@@ -14592,16 +14526,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14643,7 +14577,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>11</v>
@@ -14657,7 +14591,7 @@
         <v>58</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>10</v>
@@ -14671,7 +14605,7 @@
         <v>58</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>6</v>
@@ -14685,7 +14619,7 @@
         <v>58</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>8</v>
@@ -14699,7 +14633,7 @@
         <v>58</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>5</v>
@@ -14713,7 +14647,7 @@
         <v>58</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>12</v>
@@ -14727,7 +14661,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>5</v>
@@ -14741,7 +14675,7 @@
         <v>58</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>9</v>
@@ -14755,7 +14689,7 @@
         <v>58</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>7</v>
@@ -14769,7 +14703,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>6</v>
@@ -14783,7 +14717,7 @@
         <v>57</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>7</v>
@@ -14797,7 +14731,7 @@
         <v>57</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>12</v>
@@ -14811,7 +14745,7 @@
         <v>57</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>5</v>
@@ -14825,7 +14759,7 @@
         <v>57</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>6</v>
@@ -14839,7 +14773,7 @@
         <v>57</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>9</v>
@@ -14853,7 +14787,7 @@
         <v>57</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>8</v>
@@ -14867,7 +14801,7 @@
         <v>57</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>11</v>
@@ -14881,7 +14815,7 @@
         <v>57</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>10</v>
@@ -14895,7 +14829,7 @@
         <v>56</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>6</v>
@@ -14909,7 +14843,7 @@
         <v>56</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>10</v>
@@ -14923,7 +14857,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>8</v>
@@ -14937,7 +14871,7 @@
         <v>56</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>5</v>
@@ -14951,7 +14885,7 @@
         <v>56</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>12</v>
@@ -14965,7 +14899,7 @@
         <v>56</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>7</v>
@@ -14979,7 +14913,7 @@
         <v>56</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>9</v>
@@ -14993,7 +14927,7 @@
         <v>56</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>11</v>
@@ -15007,7 +14941,7 @@
         <v>58</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>6</v>
@@ -15021,7 +14955,7 @@
         <v>58</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>7</v>
@@ -15035,7 +14969,7 @@
         <v>58</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>9</v>
@@ -15049,7 +14983,7 @@
         <v>58</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>12</v>
@@ -15063,7 +14997,7 @@
         <v>58</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>5</v>
@@ -15077,7 +15011,7 @@
         <v>58</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>10</v>
@@ -15091,7 +15025,7 @@
         <v>58</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>11</v>
@@ -15105,7 +15039,7 @@
         <v>58</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>8</v>
@@ -15119,7 +15053,7 @@
         <v>57</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>11</v>
@@ -15133,7 +15067,7 @@
         <v>57</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>12</v>
@@ -15147,7 +15081,7 @@
         <v>57</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>10</v>
@@ -15161,7 +15095,7 @@
         <v>57</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>5</v>
@@ -15175,7 +15109,7 @@
         <v>57</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>8</v>
@@ -15189,7 +15123,7 @@
         <v>57</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>6</v>
@@ -15203,7 +15137,7 @@
         <v>57</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>9</v>
@@ -15217,7 +15151,7 @@
         <v>57</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>7</v>
@@ -15231,7 +15165,7 @@
         <v>56</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>11</v>
@@ -15245,7 +15179,7 @@
         <v>56</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>6</v>
@@ -15259,7 +15193,7 @@
         <v>56</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>5</v>
@@ -15273,7 +15207,7 @@
         <v>56</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>8</v>
@@ -15287,7 +15221,7 @@
         <v>56</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>9</v>
@@ -15301,7 +15235,7 @@
         <v>56</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D49" s="19" t="s">
         <v>7</v>
@@ -15315,7 +15249,7 @@
         <v>56</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D50" s="19" t="s">
         <v>12</v>
@@ -15329,7 +15263,7 @@
         <v>56</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>10</v>
@@ -15343,7 +15277,7 @@
         <v>58</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="D52" s="19" t="s">
         <v>8</v>
@@ -15357,7 +15291,7 @@
         <v>58</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="D53" s="19" t="s">
         <v>11</v>
@@ -15371,7 +15305,7 @@
         <v>58</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="D54" s="19" t="s">
         <v>9</v>
@@ -15385,7 +15319,7 @@
         <v>58</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="D55" s="19" t="s">
         <v>7</v>
@@ -15399,7 +15333,7 @@
         <v>58</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="D56" s="19" t="s">
         <v>10</v>
@@ -15413,7 +15347,7 @@
         <v>58</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>5</v>
@@ -15427,7 +15361,7 @@
         <v>58</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="D58" s="19" t="s">
         <v>6</v>
@@ -15441,7 +15375,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>12</v>
@@ -15455,7 +15389,7 @@
         <v>57</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>5</v>
@@ -15469,7 +15403,7 @@
         <v>57</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>12</v>
@@ -15483,7 +15417,7 @@
         <v>57</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>7</v>
@@ -15497,7 +15431,7 @@
         <v>57</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>9</v>
@@ -15511,7 +15445,7 @@
         <v>57</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>6</v>
@@ -15525,7 +15459,7 @@
         <v>57</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="D65" s="19" t="s">
         <v>10</v>
@@ -15539,7 +15473,7 @@
         <v>57</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="D66" s="19" t="s">
         <v>11</v>
@@ -15553,7 +15487,7 @@
         <v>57</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D67" s="19" t="s">
         <v>8</v>
@@ -15567,7 +15501,7 @@
         <v>56</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>5</v>
@@ -15581,7 +15515,7 @@
         <v>56</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>10</v>
@@ -15595,7 +15529,7 @@
         <v>56</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D70" s="10" t="s">
         <v>12</v>
@@ -15609,7 +15543,7 @@
         <v>56</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>9</v>
@@ -15623,7 +15557,7 @@
         <v>56</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>7</v>
@@ -15637,7 +15571,7 @@
         <v>56</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="D73" s="19" t="s">
         <v>8</v>
@@ -15651,7 +15585,7 @@
         <v>56</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>6</v>
@@ -15665,7 +15599,7 @@
         <v>56</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="D75" s="10" t="s">
         <v>11</v>
@@ -15679,7 +15613,7 @@
         <v>58</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="D76" s="19" t="s">
         <v>6</v>
@@ -15693,7 +15627,7 @@
         <v>58</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="D77" s="19" t="s">
         <v>11</v>
@@ -15707,7 +15641,7 @@
         <v>58</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>8</v>
@@ -15721,7 +15655,7 @@
         <v>58</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="D79" s="19" t="s">
         <v>12</v>
@@ -15735,7 +15669,7 @@
         <v>58</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D80" s="19" t="s">
         <v>5</v>
@@ -15749,7 +15683,7 @@
         <v>58</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="D81" s="19" t="s">
         <v>7</v>
@@ -15763,7 +15697,7 @@
         <v>58</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>9</v>
@@ -15777,7 +15711,7 @@
         <v>58</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>10</v>
@@ -15791,7 +15725,7 @@
         <v>57</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D84" s="19" t="s">
         <v>12</v>
@@ -15805,7 +15739,7 @@
         <v>57</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="D85" s="19" t="s">
         <v>6</v>
@@ -15819,7 +15753,7 @@
         <v>57</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="D86" s="10" t="s">
         <v>8</v>
@@ -15833,7 +15767,7 @@
         <v>57</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>7</v>
@@ -15847,7 +15781,7 @@
         <v>57</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>11</v>
@@ -15861,7 +15795,7 @@
         <v>57</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>9</v>
@@ -15875,7 +15809,7 @@
         <v>57</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>5</v>
@@ -15889,7 +15823,7 @@
         <v>57</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>10</v>
@@ -15903,7 +15837,7 @@
         <v>56</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>6</v>
@@ -15917,7 +15851,7 @@
         <v>56</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>12</v>
@@ -15931,7 +15865,7 @@
         <v>56</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="D94" s="19" t="s">
         <v>9</v>
@@ -15945,7 +15879,7 @@
         <v>56</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>5</v>
@@ -15959,7 +15893,7 @@
         <v>56</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D96" s="19" t="s">
         <v>7</v>
@@ -15973,7 +15907,7 @@
         <v>56</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D97" s="19" t="s">
         <v>8</v>
@@ -15987,7 +15921,7 @@
         <v>56</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>11</v>
@@ -16001,7 +15935,7 @@
         <v>56</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>10</v>
@@ -16015,7 +15949,7 @@
         <v>58</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D100" s="19" t="s">
         <v>12</v>
@@ -16029,7 +15963,7 @@
         <v>58</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="D101" s="19" t="s">
         <v>5</v>
@@ -16043,7 +15977,7 @@
         <v>58</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D102" s="19" t="s">
         <v>6</v>
@@ -16057,7 +15991,7 @@
         <v>58</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D103" s="19" t="s">
         <v>7</v>
@@ -16071,7 +16005,7 @@
         <v>58</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>11</v>
@@ -16085,7 +16019,7 @@
         <v>58</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="D105" s="19" t="s">
         <v>10</v>
@@ -16099,7 +16033,7 @@
         <v>58</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="D106" s="19" t="s">
         <v>9</v>
@@ -16113,7 +16047,7 @@
         <v>58</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>8</v>
@@ -16127,7 +16061,7 @@
         <v>57</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>5</v>
@@ -16141,7 +16075,7 @@
         <v>57</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>8</v>
@@ -16155,7 +16089,7 @@
         <v>57</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="D110" s="19" t="s">
         <v>9</v>
@@ -16169,7 +16103,7 @@
         <v>57</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D111" s="19" t="s">
         <v>12</v>
@@ -16183,7 +16117,7 @@
         <v>57</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="D112" s="19" t="s">
         <v>7</v>
@@ -16197,7 +16131,7 @@
         <v>57</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>6</v>
@@ -16211,7 +16145,7 @@
         <v>57</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="D114" s="19" t="s">
         <v>10</v>
@@ -16225,7 +16159,7 @@
         <v>57</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>11</v>
@@ -16239,7 +16173,7 @@
         <v>56</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>8</v>
@@ -16253,7 +16187,7 @@
         <v>56</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>12</v>
@@ -16267,7 +16201,7 @@
         <v>56</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>7</v>
@@ -16281,7 +16215,7 @@
         <v>56</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>5</v>
@@ -16295,7 +16229,7 @@
         <v>56</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>6</v>
@@ -16309,7 +16243,7 @@
         <v>56</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>11</v>
@@ -16323,7 +16257,7 @@
         <v>56</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>10</v>
@@ -16337,7 +16271,7 @@
         <v>56</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>9</v>
@@ -16345,13 +16279,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="19" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B124" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="D124" s="19" t="s">
         <v>5</v>
@@ -16359,13 +16293,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="19" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B125" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="D125" s="19" t="s">
         <v>9</v>
@@ -16373,13 +16307,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B126" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>7</v>
@@ -16387,13 +16321,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="19" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B127" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D127" s="19" t="s">
         <v>10</v>
@@ -16401,13 +16335,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="19" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B128" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="D128" s="19" t="s">
         <v>12</v>
@@ -16415,13 +16349,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="19" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B129" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D129" s="19" t="s">
         <v>6</v>
@@ -16429,13 +16363,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="19" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B130" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="D130" s="19" t="s">
         <v>11</v>
@@ -16443,13 +16377,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="19" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B131" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="D131" s="19" t="s">
         <v>8</v>
@@ -16457,13 +16391,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B132" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="D132" s="10" t="s">
         <v>11</v>
@@ -16471,13 +16405,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B133" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="D133" s="10" t="s">
         <v>8</v>
@@ -16485,13 +16419,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="19" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B134" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="D134" s="19" t="s">
         <v>10</v>
@@ -16499,13 +16433,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="19" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B135" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D135" s="19" t="s">
         <v>12</v>
@@ -16513,13 +16447,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="19" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B136" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="D136" s="19" t="s">
         <v>9</v>
@@ -16527,13 +16461,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B137" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="D137" s="10" t="s">
         <v>6</v>
@@ -16541,13 +16475,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B138" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D138" s="10" t="s">
         <v>5</v>
@@ -16555,13 +16489,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="19" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B139" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="D139" s="19" t="s">
         <v>7</v>
@@ -16569,13 +16503,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B140" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="D140" s="10" t="s">
         <v>6</v>
@@ -16583,13 +16517,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B141" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="D141" s="10" t="s">
         <v>10</v>
@@ -16597,13 +16531,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B142" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D142" s="10" t="s">
         <v>5</v>
@@ -16611,13 +16545,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B143" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="D143" s="10" t="s">
         <v>11</v>
@@ -16625,13 +16559,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="19" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B144" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D144" s="19" t="s">
         <v>8</v>
@@ -16639,13 +16573,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B145" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="D145" s="10" t="s">
         <v>9</v>
@@ -16653,13 +16587,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="19" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B146" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D146" s="19" t="s">
         <v>7</v>
@@ -16667,13 +16601,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B147" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D147" s="10" t="s">
         <v>12</v>
@@ -16681,13 +16615,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="19" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B148" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="D148" s="19" t="s">
         <v>8</v>
@@ -16695,13 +16629,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="19" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B149" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="D149" s="19" t="s">
         <v>10</v>
@@ -16709,13 +16643,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="19" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B150" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D150" s="19" t="s">
         <v>12</v>
@@ -16723,13 +16657,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B151" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D151" s="10" t="s">
         <v>9</v>
@@ -16737,13 +16671,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="19" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B152" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D152" s="19" t="s">
         <v>5</v>
@@ -16751,13 +16685,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="19" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B153" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D153" s="19" t="s">
         <v>6</v>
@@ -16765,13 +16699,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B154" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D154" s="19" t="s">
         <v>7</v>
@@ -16779,13 +16713,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B155" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="D155" s="19" t="s">
         <v>11</v>
@@ -16793,13 +16727,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="19" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B156" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="D156" s="19" t="s">
         <v>9</v>
@@ -16807,13 +16741,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="19" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B157" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D157" s="19" t="s">
         <v>5</v>
@@ -16821,13 +16755,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="19" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B158" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="D158" s="19" t="s">
         <v>10</v>
@@ -16835,13 +16769,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="19" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B159" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="D159" s="19" t="s">
         <v>11</v>
@@ -16849,13 +16783,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="19" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B160" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="D160" s="19" t="s">
         <v>12</v>
@@ -16863,13 +16797,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="19" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B161" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D161" s="19" t="s">
         <v>7</v>
@@ -16877,13 +16811,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B162" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="D162" s="10" t="s">
         <v>8</v>
@@ -16891,13 +16825,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="19" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B163" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D163" s="19" t="s">
         <v>6</v>
@@ -16905,13 +16839,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B164" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D164" s="10" t="s">
         <v>8</v>
@@ -16919,13 +16853,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B165" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="D165" s="10" t="s">
         <v>7</v>
@@ -16933,13 +16867,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B166" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="D166" s="10" t="s">
         <v>11</v>
@@ -16947,13 +16881,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B167" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="D167" s="10" t="s">
         <v>9</v>
@@ -16961,13 +16895,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B168" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="D168" s="10" t="s">
         <v>6</v>
@@ -16975,13 +16909,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B169" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="D169" s="10" t="s">
         <v>12</v>
@@ -16989,13 +16923,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B170" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D170" s="10" t="s">
         <v>10</v>
@@ -17003,13 +16937,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B171" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D171" s="10" t="s">
         <v>5</v>
@@ -17017,13 +16951,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B172" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D172" s="10" t="s">
         <v>9</v>
@@ -17031,13 +16965,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="19" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B173" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D173" s="19" t="s">
         <v>12</v>
@@ -17045,13 +16979,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="19" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B174" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="D174" s="19" t="s">
         <v>10</v>
@@ -17059,13 +16993,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="19" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B175" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="D175" s="19" t="s">
         <v>6</v>
@@ -17073,13 +17007,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="19" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B176" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D176" s="19" t="s">
         <v>5</v>
@@ -17087,13 +17021,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B177" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="D177" s="10" t="s">
         <v>8</v>
@@ -17101,13 +17035,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="19" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B178" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="D178" s="19" t="s">
         <v>11</v>
@@ -17115,13 +17049,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B179" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D179" s="10" t="s">
         <v>7</v>
@@ -17129,13 +17063,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B180" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="D180" s="10" t="s">
         <v>12</v>
@@ -17143,13 +17077,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B181" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="D181" s="10" t="s">
         <v>8</v>
@@ -17157,13 +17091,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="D182" s="10" t="s">
         <v>11</v>
@@ -17171,13 +17105,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B183" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D183" s="10" t="s">
         <v>7</v>
@@ -17185,13 +17119,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B184" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D184" s="10" t="s">
         <v>9</v>
@@ -17199,13 +17133,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B185" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="D185" s="10" t="s">
         <v>10</v>
@@ -17213,13 +17147,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B186" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="D186" s="10" t="s">
         <v>6</v>
@@ -17227,13 +17161,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="19" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B187" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="D187" s="19" t="s">
         <v>5</v>
@@ -17241,13 +17175,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B188" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="D188" s="10" t="s">
         <v>8</v>
@@ -17255,13 +17189,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="19" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B189" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="D189" s="19" t="s">
         <v>11</v>
@@ -17269,13 +17203,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="19" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B190" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="D190" s="19" t="s">
         <v>7</v>
@@ -17283,13 +17217,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="19" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B191" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="D191" s="19" t="s">
         <v>10</v>
@@ -17297,13 +17231,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B192" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D192" s="10" t="s">
         <v>5</v>
@@ -17311,13 +17245,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B193" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D193" s="10" t="s">
         <v>12</v>
@@ -17325,13 +17259,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B194" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D194" s="10" t="s">
         <v>6</v>
@@ -17339,13 +17273,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="19" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B195" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="D195" s="19" t="s">
         <v>9</v>
@@ -17353,13 +17287,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="19" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B196" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C196" s="19" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D196" s="19" t="s">
         <v>12</v>
@@ -17367,13 +17301,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="19" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B197" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="D197" s="19" t="s">
         <v>11</v>
@@ -17381,13 +17315,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B198" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="D198" s="10" t="s">
         <v>10</v>
@@ -17395,13 +17329,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="19" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B199" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="D199" s="19" t="s">
         <v>8</v>
@@ -17409,13 +17343,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="19" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B200" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C200" s="19" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D200" s="19" t="s">
         <v>5</v>
@@ -17423,13 +17357,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="19" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B201" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D201" s="19" t="s">
         <v>7</v>
@@ -17437,13 +17371,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B202" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D202" s="10" t="s">
         <v>9</v>
@@ -17451,13 +17385,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="19" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B203" s="19" t="s">
         <v>58</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D203" s="19" t="s">
         <v>6</v>
@@ -17465,13 +17399,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="19" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B204" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="D204" s="19" t="s">
         <v>5</v>
@@ -17479,13 +17413,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="19" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B205" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C205" s="19" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="D205" s="19" t="s">
         <v>11</v>
@@ -17493,13 +17427,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="19" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B206" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C206" s="19" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="D206" s="19" t="s">
         <v>10</v>
@@ -17507,13 +17441,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="19" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B207" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C207" s="19" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="D207" s="19" t="s">
         <v>12</v>
@@ -17521,13 +17455,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="19" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B208" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D208" s="19" t="s">
         <v>8</v>
@@ -17535,13 +17469,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B209" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="D209" s="10" t="s">
         <v>6</v>
@@ -17549,13 +17483,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B210" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D210" s="10" t="s">
         <v>7</v>
@@ -17563,13 +17497,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="19" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B211" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="D211" s="19" t="s">
         <v>9</v>
@@ -17577,13 +17511,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="19" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B212" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C212" s="19" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D212" s="19" t="s">
         <v>8</v>
@@ -17591,13 +17525,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B213" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D213" s="10" t="s">
         <v>6</v>
@@ -17605,13 +17539,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="19" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B214" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C214" s="19" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="D214" s="19" t="s">
         <v>9</v>
@@ -17619,13 +17553,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B215" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="D215" s="10" t="s">
         <v>7</v>
@@ -17633,13 +17567,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B216" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="D216" s="10" t="s">
         <v>12</v>
@@ -17647,13 +17581,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B217" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="D217" s="10" t="s">
         <v>11</v>
@@ -17661,13 +17595,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="19" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B218" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C218" s="19" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D218" s="19" t="s">
         <v>5</v>
@@ -17675,13 +17609,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B219" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D219" s="10" t="s">
         <v>10</v>
@@ -17695,7 +17629,7 @@
         <v>58</v>
       </c>
       <c r="C220" s="19" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="D220" s="19" t="s">
         <v>10</v>
@@ -17709,7 +17643,7 @@
         <v>58</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D221" s="10" t="s">
         <v>5</v>
@@ -17723,7 +17657,7 @@
         <v>58</v>
       </c>
       <c r="C222" s="19" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D222" s="19" t="s">
         <v>12</v>
@@ -17737,7 +17671,7 @@
         <v>58</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="D223" s="19" t="s">
         <v>11</v>
@@ -17751,7 +17685,7 @@
         <v>58</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D224" s="10" t="s">
         <v>9</v>
@@ -17765,7 +17699,7 @@
         <v>58</v>
       </c>
       <c r="C225" s="19" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="D225" s="19" t="s">
         <v>7</v>
@@ -17779,7 +17713,7 @@
         <v>58</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D226" s="10" t="s">
         <v>6</v>
@@ -17793,7 +17727,7 @@
         <v>58</v>
       </c>
       <c r="C227" s="19" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="D227" s="19" t="s">
         <v>8</v>
@@ -17807,7 +17741,7 @@
         <v>57</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="D228" s="10" t="s">
         <v>8</v>
@@ -17821,7 +17755,7 @@
         <v>57</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D229" s="10" t="s">
         <v>5</v>
@@ -17835,7 +17769,7 @@
         <v>57</v>
       </c>
       <c r="C230" s="19" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="D230" s="19" t="s">
         <v>6</v>
@@ -17849,7 +17783,7 @@
         <v>57</v>
       </c>
       <c r="C231" s="19" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="D231" s="19" t="s">
         <v>10</v>
@@ -17863,7 +17797,7 @@
         <v>57</v>
       </c>
       <c r="C232" s="19" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D232" s="19" t="s">
         <v>7</v>
@@ -17877,7 +17811,7 @@
         <v>57</v>
       </c>
       <c r="C233" s="19" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="D233" s="19" t="s">
         <v>9</v>
@@ -17891,7 +17825,7 @@
         <v>57</v>
       </c>
       <c r="C234" s="19" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="D234" s="19" t="s">
         <v>12</v>
@@ -17905,7 +17839,7 @@
         <v>57</v>
       </c>
       <c r="C235" s="19" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="D235" s="19" t="s">
         <v>11</v>
@@ -17919,7 +17853,7 @@
         <v>56</v>
       </c>
       <c r="C236" s="19" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="D236" s="19" t="s">
         <v>6</v>
@@ -17933,7 +17867,7 @@
         <v>56</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="D237" s="10" t="s">
         <v>9</v>
@@ -17947,7 +17881,7 @@
         <v>56</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="D238" s="10" t="s">
         <v>11</v>
@@ -17961,7 +17895,7 @@
         <v>56</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="D239" s="10" t="s">
         <v>10</v>
@@ -17975,7 +17909,7 @@
         <v>56</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D240" s="10" t="s">
         <v>12</v>
@@ -17989,7 +17923,7 @@
         <v>56</v>
       </c>
       <c r="C241" s="19" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="D241" s="19" t="s">
         <v>5</v>
@@ -18003,7 +17937,7 @@
         <v>56</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D242" s="10" t="s">
         <v>8</v>
@@ -18017,7 +17951,7 @@
         <v>56</v>
       </c>
       <c r="C243" s="19" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D243" s="19" t="s">
         <v>7</v>

--- a/InputExample.xlsx
+++ b/InputExample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A6B8E5-9E37-4842-B372-A53364E2A30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254CF473-77E9-40D1-ABFE-CD48E528B805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="148">
   <si>
     <t>Day number</t>
   </si>
@@ -923,6 +923,51 @@
   <si>
     <t>3. In the Restrictions sheet, add zero restrictions for this person.</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>You can use this workbook as a template</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - delete the test data and enter your own. The worksheets of this workbook are protected to prevent accidental changes, so if you want to edit the worksheets, you need to unprotect them </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Review → Unprotect Worksheet)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1354,6 +1399,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1408,7 +1466,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
@@ -1417,24 +1474,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1532,12 +1571,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1861,18 +1906,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="2:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
@@ -1897,364 +1942,395 @@
       <c r="B4" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="M4" s="32" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="M4" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="34"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="39"/>
     </row>
     <row r="5" spans="2:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="18"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="37"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="42"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
       <c r="K6" s="18"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="37"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="42"/>
     </row>
     <row r="7" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="37"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="42"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M8" s="35"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="37"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="42"/>
     </row>
     <row r="9" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="37"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="42"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M10" s="35"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="37"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="42"/>
     </row>
     <row r="11" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="40"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="45"/>
     </row>
     <row r="13" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M14" s="41" t="s">
+      <c r="M14" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="43"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="48"/>
     </row>
     <row r="15" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="46"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="51"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M16" s="44"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="46"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="51"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="M17" s="44"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="46"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="51"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M18" s="44"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="46"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="51"/>
     </row>
     <row r="19" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>70</v>
       </c>
       <c r="D19" s="15"/>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="46"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="51"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M20" s="35"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="37"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="42"/>
     </row>
     <row r="21" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D21" s="15"/>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="37"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="42"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M22" s="35"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="37"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="42"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="M23" s="51"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="53"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="57"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="43"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="48"/>
+      <c r="M25" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="39"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="E26" s="44"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="46"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="51"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="42"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="46"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="51"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="42"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="E28" s="44"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="46"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="51"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="42"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="E29" s="47"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="49"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="54"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="45"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="13">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="B5:J6"/>
+  <mergeCells count="14">
     <mergeCell ref="M4:S11"/>
     <mergeCell ref="E25:K29"/>
     <mergeCell ref="D15:K15"/>
@@ -2262,6 +2338,13 @@
     <mergeCell ref="E21:K21"/>
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="M14:S23"/>
+    <mergeCell ref="M25:S29"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="B5:J6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{EBBE9E75-DCD8-42B6-855F-1F7C935A12BF}"/>
@@ -2275,7 +2358,7 @@
     <hyperlink ref="B27" location="'Result_Example(Assigned)'!A1" display="Result_Example(Assigned)" xr:uid="{81A18C42-452A-466E-B9F2-0E29380EE856}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2324,11 +2407,11 @@
       <c r="E2" s="27">
         <v>2</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="71"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
@@ -2346,13 +2429,13 @@
       <c r="E3" s="27">
         <v>1</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="74"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="72"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
@@ -2370,11 +2453,11 @@
       <c r="E4" s="27">
         <v>1</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="77"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="75"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
@@ -2436,13 +2519,13 @@
       <c r="E7" s="27">
         <v>1</v>
       </c>
-      <c r="G7" s="78" t="s">
+      <c r="G7" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="80"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="78"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
@@ -2460,11 +2543,11 @@
       <c r="E8" s="27">
         <v>1</v>
       </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="80"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="78"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
@@ -2482,11 +2565,11 @@
       <c r="E9" s="27">
         <v>1</v>
       </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="80"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="78"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
@@ -2526,13 +2609,13 @@
       <c r="E11" s="27">
         <v>2</v>
       </c>
-      <c r="G11" s="78" t="s">
+      <c r="G11" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="80"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="78"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
@@ -2550,11 +2633,11 @@
       <c r="E12" s="27">
         <v>1</v>
       </c>
-      <c r="G12" s="81"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="80"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="78"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
@@ -2572,11 +2655,11 @@
       <c r="E13" s="27">
         <v>1</v>
       </c>
-      <c r="G13" s="81"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="80"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="78"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
@@ -2616,13 +2699,13 @@
       <c r="E15" s="27">
         <v>1</v>
       </c>
-      <c r="G15" s="78" t="s">
+      <c r="G15" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="80"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="78"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
@@ -2640,11 +2723,11 @@
       <c r="E16" s="27">
         <v>1</v>
       </c>
-      <c r="G16" s="81"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="80"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="78"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
@@ -2662,11 +2745,11 @@
       <c r="E17" s="27">
         <v>1</v>
       </c>
-      <c r="G17" s="81"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="80"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="78"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
@@ -2706,13 +2789,13 @@
       <c r="E19" s="27">
         <v>1</v>
       </c>
-      <c r="G19" s="78" t="s">
+      <c r="G19" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="80"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="78"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
@@ -2730,11 +2813,11 @@
       <c r="E20" s="27">
         <v>1</v>
       </c>
-      <c r="G20" s="81"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="80"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="78"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
@@ -2752,11 +2835,11 @@
       <c r="E21" s="27">
         <v>1</v>
       </c>
-      <c r="G21" s="81"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="80"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="78"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
@@ -2796,13 +2879,13 @@
       <c r="E23" s="27">
         <v>1</v>
       </c>
-      <c r="G23" s="60" t="s">
+      <c r="G23" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="65"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="63"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
@@ -2820,11 +2903,11 @@
       <c r="E24" s="27">
         <v>1</v>
       </c>
-      <c r="G24" s="60"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="65"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="63"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
@@ -2842,11 +2925,11 @@
       <c r="E25" s="27">
         <v>1</v>
       </c>
-      <c r="G25" s="60"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="65"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="63"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
@@ -2864,11 +2947,11 @@
       <c r="E26" s="27">
         <v>1</v>
       </c>
-      <c r="G26" s="66"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="68"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="66"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
@@ -2920,11 +3003,11 @@
       <c r="E29" s="27">
         <v>1</v>
       </c>
-      <c r="G29" s="69"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="71"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="69"/>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
@@ -2942,13 +3025,13 @@
       <c r="E30" s="27">
         <v>1</v>
       </c>
-      <c r="G30" s="82" t="s">
+      <c r="G30" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="84"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="82"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
@@ -2966,11 +3049,11 @@
       <c r="E31" s="27">
         <v>1</v>
       </c>
-      <c r="G31" s="85"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="87"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="85"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
@@ -3010,13 +3093,13 @@
       <c r="E33" s="27">
         <v>1</v>
       </c>
-      <c r="G33" s="60" t="s">
+      <c r="G33" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="62"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="60"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27">
@@ -3034,11 +3117,11 @@
       <c r="E34" s="27">
         <v>1</v>
       </c>
-      <c r="G34" s="63"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="62"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="60"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="27">
@@ -3056,11 +3139,11 @@
       <c r="E35" s="27">
         <v>1</v>
       </c>
-      <c r="G35" s="63"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="62"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="60"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="27">
@@ -3078,13 +3161,13 @@
       <c r="E36" s="27">
         <v>1</v>
       </c>
-      <c r="G36" s="60" t="s">
+      <c r="G36" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="62"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="60"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="27">
@@ -3102,11 +3185,11 @@
       <c r="E37" s="27">
         <v>1</v>
       </c>
-      <c r="G37" s="63"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="62"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="60"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="27">
@@ -3124,11 +3207,11 @@
       <c r="E38" s="27">
         <v>1</v>
       </c>
-      <c r="G38" s="63"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="62"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="60"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="27">
@@ -3146,13 +3229,13 @@
       <c r="E39" s="27">
         <v>1</v>
       </c>
-      <c r="G39" s="60" t="s">
+      <c r="G39" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="62"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="60"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="27">
@@ -3170,11 +3253,11 @@
       <c r="E40" s="27">
         <v>1</v>
       </c>
-      <c r="G40" s="63"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="62"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="60"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="27">
@@ -3192,11 +3275,11 @@
       <c r="E41" s="27">
         <v>1</v>
       </c>
-      <c r="G41" s="63"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="62"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="60"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="27">
@@ -3214,13 +3297,13 @@
       <c r="E42" s="27">
         <v>1</v>
       </c>
-      <c r="G42" s="60" t="s">
+      <c r="G42" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="62"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="60"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="27">
@@ -3238,11 +3321,11 @@
       <c r="E43" s="27">
         <v>1</v>
       </c>
-      <c r="G43" s="63"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="62"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="60"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="27">
@@ -3260,11 +3343,11 @@
       <c r="E44" s="27">
         <v>1</v>
       </c>
-      <c r="G44" s="63"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="62"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="60"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="27">
@@ -6676,11 +6759,11 @@
       <c r="C2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
@@ -6692,13 +6775,13 @@
       <c r="C3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
@@ -6710,11 +6793,11 @@
       <c r="C4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="77"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="75"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
@@ -6726,13 +6809,13 @@
       <c r="C5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="78" t="s">
+      <c r="F5" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
@@ -6744,11 +6827,11 @@
       <c r="C6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="78"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="89"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="87"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
@@ -6760,11 +6843,11 @@
       <c r="C7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="78"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="87"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
@@ -6776,11 +6859,11 @@
       <c r="C8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="78"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="89"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="87"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
@@ -6792,13 +6875,13 @@
       <c r="C9" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="90" t="s">
+      <c r="F9" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="92"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="90"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
@@ -6810,11 +6893,11 @@
       <c r="C10" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="93"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="92"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="90"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
@@ -6826,11 +6909,11 @@
       <c r="C11" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="93"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="92"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="90"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
@@ -6842,11 +6925,11 @@
       <c r="C12" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="93"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="92"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="90"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
@@ -6858,11 +6941,11 @@
       <c r="C13" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="93"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="92"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="90"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
@@ -6890,13 +6973,13 @@
       <c r="C15" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="65"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="63"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
@@ -6908,11 +6991,11 @@
       <c r="C16" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="60"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="65"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
@@ -6924,11 +7007,11 @@
       <c r="C17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="63"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
@@ -6940,11 +7023,11 @@
       <c r="C18" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="66"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
@@ -7340,11 +7423,11 @@
       <c r="D2" s="27">
         <v>2</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
@@ -7359,13 +7442,13 @@
       <c r="D3" s="27">
         <v>2</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
@@ -7380,11 +7463,11 @@
       <c r="D4" s="27">
         <v>2</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="77"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="75"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
@@ -7437,13 +7520,13 @@
       <c r="D7" s="27">
         <v>2</v>
       </c>
-      <c r="F7" s="78" t="s">
+      <c r="F7" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="80"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
@@ -7458,11 +7541,11 @@
       <c r="D8" s="27">
         <v>2</v>
       </c>
-      <c r="F8" s="81"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="80"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="78"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
@@ -7477,11 +7560,11 @@
       <c r="D9" s="27">
         <v>2</v>
       </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="80"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="78"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
@@ -7515,13 +7598,13 @@
       <c r="D11" s="27">
         <v>2</v>
       </c>
-      <c r="F11" s="78" t="s">
+      <c r="F11" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="80"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="78"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
@@ -7536,11 +7619,11 @@
       <c r="D12" s="27">
         <v>2</v>
       </c>
-      <c r="F12" s="81"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="80"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="78"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
@@ -7555,11 +7638,11 @@
       <c r="D13" s="27">
         <v>2</v>
       </c>
-      <c r="F13" s="81"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="80"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="78"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
@@ -7593,13 +7676,13 @@
       <c r="D15" s="27">
         <v>2</v>
       </c>
-      <c r="F15" s="78" t="s">
+      <c r="F15" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="80"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="78"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
@@ -7614,11 +7697,11 @@
       <c r="D16" s="27">
         <v>2</v>
       </c>
-      <c r="F16" s="81"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="80"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="78"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
@@ -7633,11 +7716,11 @@
       <c r="D17" s="27">
         <v>2</v>
       </c>
-      <c r="F17" s="81"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="80"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="78"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
@@ -7671,13 +7754,13 @@
       <c r="D19" s="27">
         <v>2</v>
       </c>
-      <c r="F19" s="78" t="s">
+      <c r="F19" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="80"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="78"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
@@ -7692,11 +7775,11 @@
       <c r="D20" s="27">
         <v>2</v>
       </c>
-      <c r="F20" s="81"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="80"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="78"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
@@ -7711,11 +7794,11 @@
       <c r="D21" s="27">
         <v>2</v>
       </c>
-      <c r="F21" s="81"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="80"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="78"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
@@ -7749,13 +7832,13 @@
       <c r="D23" s="27">
         <v>2</v>
       </c>
-      <c r="F23" s="60" t="s">
+      <c r="F23" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="65"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="63"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
@@ -7770,11 +7853,11 @@
       <c r="D24" s="27">
         <v>2</v>
       </c>
-      <c r="F24" s="60"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="65"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="63"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
@@ -7789,11 +7872,11 @@
       <c r="D25" s="27">
         <v>2</v>
       </c>
-      <c r="F25" s="60"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="65"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="63"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
@@ -7808,11 +7891,11 @@
       <c r="D26" s="27">
         <v>2</v>
       </c>
-      <c r="F26" s="66"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="68"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="66"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
@@ -8185,11 +8268,11 @@
       <c r="C2" s="27">
         <v>3</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
@@ -8201,13 +8284,13 @@
       <c r="C3" s="27">
         <v>2</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
@@ -8219,11 +8302,11 @@
       <c r="C4" s="27">
         <v>3</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="77"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="75"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
@@ -8251,13 +8334,13 @@
       <c r="C6" s="27">
         <v>2</v>
       </c>
-      <c r="F6" s="78" t="s">
+      <c r="F6" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="80"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="78"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
@@ -8269,94 +8352,94 @@
       <c r="C7" s="27">
         <v>3</v>
       </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="80"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F8" s="81"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="80"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="78"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="78" t="s">
+      <c r="F9" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="89"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="87"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="78"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="89"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="87"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11" s="78"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="89"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="87"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="78" t="s">
+      <c r="F12" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="80"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="78"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F13" s="81"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="80"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="78"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F14" s="81"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="80"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="78"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="65"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="63"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="60"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="65"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F17" s="60"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="63"/>
     </row>
     <row r="18" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F18" s="66"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="66"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -8406,11 +8489,11 @@
       <c r="C2" s="27">
         <v>0</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
@@ -8422,13 +8505,13 @@
       <c r="C3" s="27">
         <v>0</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
@@ -8440,11 +8523,11 @@
       <c r="C4" s="27">
         <v>3</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="77"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="75"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
@@ -8472,13 +8555,13 @@
       <c r="C6" s="27">
         <v>3</v>
       </c>
-      <c r="F6" s="78" t="s">
+      <c r="F6" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="80"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="78"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
@@ -8490,11 +8573,11 @@
       <c r="C7" s="27">
         <v>0</v>
       </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="80"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
@@ -8506,11 +8589,11 @@
       <c r="C8" s="27">
         <v>0</v>
       </c>
-      <c r="F8" s="81"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="80"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="78"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
@@ -8522,13 +8605,13 @@
       <c r="C9" s="27">
         <v>2</v>
       </c>
-      <c r="F9" s="78" t="s">
+      <c r="F9" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="80"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="78"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
@@ -8540,11 +8623,11 @@
       <c r="C10" s="27">
         <v>0</v>
       </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="80"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="78"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
@@ -8556,11 +8639,11 @@
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="F11" s="81"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="80"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="78"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
@@ -8572,13 +8655,13 @@
       <c r="C12" s="27">
         <v>2</v>
       </c>
-      <c r="F12" s="78" t="s">
+      <c r="F12" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="80"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="78"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
@@ -8590,11 +8673,11 @@
       <c r="C13" s="27">
         <v>3</v>
       </c>
-      <c r="F13" s="81"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="80"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="78"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
@@ -8606,11 +8689,11 @@
       <c r="C14" s="27">
         <v>1</v>
       </c>
-      <c r="F14" s="81"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="80"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="78"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
@@ -8622,13 +8705,13 @@
       <c r="C15" s="27">
         <v>0</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="62"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="60"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
@@ -8640,11 +8723,11 @@
       <c r="C16" s="27">
         <v>0</v>
       </c>
-      <c r="F16" s="63"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="62"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="60"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
@@ -8656,11 +8739,11 @@
       <c r="C17" s="27">
         <v>3</v>
       </c>
-      <c r="F17" s="63"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="62"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="60"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
@@ -8672,13 +8755,13 @@
       <c r="C18" s="27">
         <v>0</v>
       </c>
-      <c r="F18" s="60" t="s">
+      <c r="F18" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="65"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="63"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
@@ -8690,11 +8773,11 @@
       <c r="C19" s="27">
         <v>0</v>
       </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="65"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="63"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
@@ -8706,11 +8789,11 @@
       <c r="C20" s="27">
         <v>3</v>
       </c>
-      <c r="F20" s="60"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="65"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="63"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
@@ -8722,11 +8805,11 @@
       <c r="C21" s="27">
         <v>2</v>
       </c>
-      <c r="F21" s="66"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="68"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="66"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
@@ -9255,11 +9338,11 @@
       <c r="B2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
@@ -9268,13 +9351,13 @@
       <c r="B3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
@@ -9283,11 +9366,11 @@
       <c r="B4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="77"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="75"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
@@ -9296,13 +9379,13 @@
       <c r="B5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="78" t="s">
+      <c r="F5" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
@@ -9311,11 +9394,11 @@
       <c r="B6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="78"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="89"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="87"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
@@ -9324,11 +9407,11 @@
       <c r="B7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="78"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="89"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="87"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
@@ -9337,11 +9420,11 @@
       <c r="B8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="78"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="89"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="87"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
@@ -9357,34 +9440,34 @@
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="78" t="s">
+      <c r="F10" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="89"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="87"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11" s="78"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="89"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="87"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="78"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="89"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="87"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F13" s="78"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="89"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="87"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" s="29"/>
@@ -9401,34 +9484,34 @@
       <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="78" t="s">
+      <c r="F16" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="89"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="87"/>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F17" s="78"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="89"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="87"/>
     </row>
     <row r="18" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F18" s="78"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="89"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="87"/>
     </row>
     <row r="19" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F19" s="78"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="89"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="87"/>
     </row>
     <row r="20" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F20" s="29"/>
@@ -9438,34 +9521,34 @@
       <c r="J20" s="31"/>
     </row>
     <row r="21" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F21" s="60" t="s">
+      <c r="F21" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="65"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="63"/>
     </row>
     <row r="22" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F22" s="60"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="63"/>
     </row>
     <row r="23" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F23" s="60"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="65"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="63"/>
     </row>
     <row r="24" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F24" s="66"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="68"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="66"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -9500,56 +9583,56 @@
       <c r="A1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
       <c r="E1" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="96" t="s">
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
       <c r="K1" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="96" t="s">
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
       <c r="Q1" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="96" t="s">
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
       <c r="W1" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="96" t="s">
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="AA1" s="95"/>
-      <c r="AB1" s="95"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
       <c r="AC1" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="AD1" s="95"/>
-      <c r="AE1" s="95"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -14526,16 +14609,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AE1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/InputExample.xlsx
+++ b/InputExample.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05005A90-508E-464F-B6CF-C62AA9CDF2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CF26EC-E721-489F-B7F9-474778C6C841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="9" r:id="rId1"/>
@@ -1436,25 +1436,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1509,6 +1490,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
@@ -1518,29 +1500,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1572,17 +1548,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1902,25 +1902,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7888EF26-905B-4A0D-A8E6-1AC881B9DF69}">
   <dimension ref="B2:S29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:K7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
@@ -1938,393 +1936,399 @@
       <c r="B4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="M4" s="28" t="s">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="M4" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="30"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="23"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
       <c r="K5" s="14"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="33"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="26"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
       <c r="K6" s="14"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="33"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="26"/>
     </row>
     <row r="7" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="33"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="26"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M8" s="31"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="33"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="26"/>
     </row>
     <row r="9" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="33"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="26"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M10" s="31"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="33"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="26"/>
     </row>
     <row r="11" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="36"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="29"/>
     </row>
     <row r="13" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M14" s="37" t="s">
+      <c r="M14" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="39"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="32"/>
     </row>
     <row r="15" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="42"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="35"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M16" s="40"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="42"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="35"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>66</v>
       </c>
-      <c r="M17" s="40"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="42"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="35"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M18" s="40"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="42"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="35"/>
     </row>
     <row r="19" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="42"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="35"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M20" s="31"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="33"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="26"/>
     </row>
     <row r="21" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="33"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="26"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="M22" s="31"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="33"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="26"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>70</v>
       </c>
-      <c r="M23" s="46"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="48"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="42"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="39"/>
-      <c r="M25" s="28" t="s">
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="32"/>
+      <c r="M25" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="30"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="23"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="E26" s="40"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="42"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="26"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="42"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="35"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="26"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="E28" s="40"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="42"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="35"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="26"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="E29" s="43"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="45"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="38"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="29"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="14">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="B5:J6"/>
     <mergeCell ref="M4:S11"/>
     <mergeCell ref="E25:K29"/>
     <mergeCell ref="D15:K15"/>
@@ -2333,12 +2337,6 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="M14:S23"/>
     <mergeCell ref="M25:S29"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="B5:J6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{EBBE9E75-DCD8-42B6-855F-1F7C935A12BF}"/>
@@ -2360,7 +2358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2401,11 +2399,11 @@
       <c r="E2" s="16">
         <v>2</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
@@ -2423,13 +2421,13 @@
       <c r="E3" s="16">
         <v>1</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="62"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
@@ -2447,11 +2445,11 @@
       <c r="E4" s="16">
         <v>1</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="65"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
@@ -2513,13 +2511,13 @@
       <c r="E7" s="16">
         <v>1</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="67"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="59"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
@@ -2537,11 +2535,11 @@
       <c r="E8" s="16">
         <v>1</v>
       </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="67"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="59"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -2559,11 +2557,11 @@
       <c r="E9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="68"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="67"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="59"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
@@ -2603,13 +2601,13 @@
       <c r="E11" s="16">
         <v>2</v>
       </c>
-      <c r="G11" s="66" t="s">
+      <c r="G11" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="67"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="59"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
@@ -2627,11 +2625,11 @@
       <c r="E12" s="16">
         <v>1</v>
       </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="67"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="59"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
@@ -2649,11 +2647,11 @@
       <c r="E13" s="16">
         <v>1</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="67"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="59"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
@@ -2693,13 +2691,13 @@
       <c r="E15" s="16">
         <v>1</v>
       </c>
-      <c r="G15" s="66" t="s">
+      <c r="G15" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="67"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="59"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
@@ -2717,11 +2715,11 @@
       <c r="E16" s="16">
         <v>1</v>
       </c>
-      <c r="G16" s="68"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="67"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="59"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
@@ -2739,11 +2737,11 @@
       <c r="E17" s="16">
         <v>1</v>
       </c>
-      <c r="G17" s="68"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="67"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="59"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
@@ -2783,13 +2781,13 @@
       <c r="E19" s="16">
         <v>1</v>
       </c>
-      <c r="G19" s="66" t="s">
+      <c r="G19" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="67"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="59"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
@@ -2807,11 +2805,11 @@
       <c r="E20" s="16">
         <v>1</v>
       </c>
-      <c r="G20" s="68"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="67"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="59"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
@@ -2829,11 +2827,11 @@
       <c r="E21" s="16">
         <v>1</v>
       </c>
-      <c r="G21" s="68"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="67"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="59"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
@@ -2851,11 +2849,11 @@
       <c r="E22" s="16">
         <v>1</v>
       </c>
-      <c r="G22" s="68"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="67"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="59"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
@@ -2895,13 +2893,13 @@
       <c r="E24" s="16">
         <v>1</v>
       </c>
-      <c r="G24" s="49" t="s">
+      <c r="G24" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="53"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="63"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
@@ -2919,11 +2917,11 @@
       <c r="E25" s="16">
         <v>1</v>
       </c>
-      <c r="G25" s="49"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="53"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="63"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
@@ -2941,11 +2939,11 @@
       <c r="E26" s="16">
         <v>1</v>
       </c>
-      <c r="G26" s="49"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="53"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="63"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
@@ -2963,11 +2961,11 @@
       <c r="E27" s="16">
         <v>1</v>
       </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="56"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="66"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
@@ -6610,13 +6608,13 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
+    <mergeCell ref="G19:K22"/>
+    <mergeCell ref="G24:K27"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="G3:K4"/>
     <mergeCell ref="G7:K9"/>
     <mergeCell ref="G11:K13"/>
     <mergeCell ref="G15:K17"/>
-    <mergeCell ref="G19:K22"/>
-    <mergeCell ref="G24:K27"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6657,11 +6655,11 @@
       <c r="C2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
@@ -6673,13 +6671,13 @@
       <c r="C3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
@@ -6691,11 +6689,11 @@
       <c r="C4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
@@ -6707,13 +6705,13 @@
       <c r="C5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="68"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
@@ -6725,11 +6723,11 @@
       <c r="C6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="68"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
@@ -6741,11 +6739,11 @@
       <c r="C7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="68"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
@@ -6757,11 +6755,11 @@
       <c r="C8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="70"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -6773,13 +6771,13 @@
       <c r="C9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="67"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="59"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
@@ -6791,11 +6789,11 @@
       <c r="C10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="67"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="59"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
@@ -6807,11 +6805,11 @@
       <c r="C11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="68"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="67"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="59"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
@@ -6823,11 +6821,11 @@
       <c r="C12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="67"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="59"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
@@ -6839,11 +6837,11 @@
       <c r="C13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="68"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="67"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
@@ -6871,13 +6869,13 @@
       <c r="C15" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="53"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="63"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
@@ -6889,11 +6887,11 @@
       <c r="C16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="53"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
@@ -6905,11 +6903,11 @@
       <c r="C17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="53"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="63"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
@@ -6921,11 +6919,11 @@
       <c r="C18" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="56"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
@@ -7321,11 +7319,11 @@
       <c r="D2" s="16">
         <v>2</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
@@ -7340,13 +7338,13 @@
       <c r="D3" s="16">
         <v>2</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
@@ -7361,11 +7359,11 @@
       <c r="D4" s="16">
         <v>2</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
@@ -7418,13 +7416,13 @@
       <c r="D7" s="16">
         <v>2</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="67"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="59"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
@@ -7439,11 +7437,11 @@
       <c r="D8" s="16">
         <v>2</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="67"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="59"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -7458,11 +7456,11 @@
       <c r="D9" s="16">
         <v>2</v>
       </c>
-      <c r="F9" s="68"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="67"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="59"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
@@ -7496,13 +7494,13 @@
       <c r="D11" s="16">
         <v>2</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="67"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="59"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
@@ -7517,11 +7515,11 @@
       <c r="D12" s="16">
         <v>2</v>
       </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="67"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="59"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
@@ -7536,11 +7534,11 @@
       <c r="D13" s="16">
         <v>2</v>
       </c>
-      <c r="F13" s="68"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="67"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
@@ -7574,13 +7572,13 @@
       <c r="D15" s="16">
         <v>2</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="67"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="59"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
@@ -7595,11 +7593,11 @@
       <c r="D16" s="16">
         <v>2</v>
       </c>
-      <c r="F16" s="68"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="67"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
@@ -7614,11 +7612,11 @@
       <c r="D17" s="16">
         <v>2</v>
       </c>
-      <c r="F17" s="68"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="67"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="59"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
@@ -7652,13 +7650,13 @@
       <c r="D19" s="16">
         <v>2</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="67"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="59"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
@@ -7673,11 +7671,11 @@
       <c r="D20" s="16">
         <v>2</v>
       </c>
-      <c r="F20" s="68"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="67"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="59"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
@@ -7692,11 +7690,11 @@
       <c r="D21" s="16">
         <v>2</v>
       </c>
-      <c r="F21" s="68"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="67"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="59"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
@@ -7730,13 +7728,13 @@
       <c r="D23" s="16">
         <v>2</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="53"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="63"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
@@ -7751,11 +7749,11 @@
       <c r="D24" s="16">
         <v>2</v>
       </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="53"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="63"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
@@ -7770,11 +7768,11 @@
       <c r="D25" s="16">
         <v>2</v>
       </c>
-      <c r="F25" s="49"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="53"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="63"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
@@ -7789,11 +7787,11 @@
       <c r="D26" s="16">
         <v>2</v>
       </c>
-      <c r="F26" s="54"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="56"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="66"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
@@ -8166,11 +8164,11 @@
       <c r="C2" s="16">
         <v>3</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
@@ -8182,13 +8180,13 @@
       <c r="C3" s="16">
         <v>2</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
@@ -8200,11 +8198,11 @@
       <c r="C4" s="16">
         <v>3</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
@@ -8232,13 +8230,13 @@
       <c r="C6" s="16">
         <v>2</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="67"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
@@ -8250,94 +8248,94 @@
       <c r="C7" s="16">
         <v>3</v>
       </c>
-      <c r="F7" s="68"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="67"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="59"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F8" s="68"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="67"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="59"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="68"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="66"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="68"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11" s="66"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="70"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="68"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="67"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="59"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F13" s="68"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="67"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F14" s="68"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="67"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="59"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="53"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="63"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="49"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="53"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F17" s="49"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="53"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="63"/>
     </row>
     <row r="18" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="56"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="66"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -8389,11 +8387,11 @@
       <c r="C2" s="16">
         <v>0</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
@@ -8405,13 +8403,13 @@
       <c r="C3" s="16">
         <v>0</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
@@ -8423,11 +8421,11 @@
       <c r="C4" s="16">
         <v>3</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
@@ -8455,13 +8453,13 @@
       <c r="C6" s="16">
         <v>3</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="67"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
@@ -8473,11 +8471,11 @@
       <c r="C7" s="16">
         <v>0</v>
       </c>
-      <c r="F7" s="68"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="67"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="59"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
@@ -8489,11 +8487,11 @@
       <c r="C8" s="16">
         <v>0</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="67"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="59"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -8505,13 +8503,13 @@
       <c r="C9" s="16">
         <v>2</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="67"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="59"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
@@ -8523,11 +8521,11 @@
       <c r="C10" s="16">
         <v>0</v>
       </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="67"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="59"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
@@ -8539,11 +8537,11 @@
       <c r="C11" s="16">
         <v>0</v>
       </c>
-      <c r="F11" s="68"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="67"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="59"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
@@ -8555,13 +8553,13 @@
       <c r="C12" s="16">
         <v>2</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="67"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="59"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
@@ -8573,11 +8571,11 @@
       <c r="C13" s="16">
         <v>3</v>
       </c>
-      <c r="F13" s="68"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="67"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
@@ -8589,11 +8587,11 @@
       <c r="C14" s="16">
         <v>1</v>
       </c>
-      <c r="F14" s="68"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="67"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="59"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
@@ -8605,13 +8603,13 @@
       <c r="C15" s="16">
         <v>0</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="50"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="69"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
@@ -8623,11 +8621,11 @@
       <c r="C16" s="16">
         <v>0</v>
       </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="50"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
@@ -8639,11 +8637,11 @@
       <c r="C17" s="16">
         <v>3</v>
       </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="50"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="69"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
@@ -8655,13 +8653,13 @@
       <c r="C18" s="16">
         <v>0</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="53"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="63"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
@@ -8673,11 +8671,11 @@
       <c r="C19" s="16">
         <v>0</v>
       </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="53"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="63"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
@@ -8689,11 +8687,11 @@
       <c r="C20" s="16">
         <v>3</v>
       </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="53"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="63"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
@@ -8705,11 +8703,11 @@
       <c r="C21" s="16">
         <v>2</v>
       </c>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="56"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="66"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
@@ -9238,11 +9236,11 @@
       <c r="B2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -9251,13 +9249,13 @@
       <c r="B3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
@@ -9266,11 +9264,11 @@
       <c r="B4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
@@ -9279,13 +9277,13 @@
       <c r="B5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="68"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
@@ -9294,11 +9292,11 @@
       <c r="B6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="68"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
@@ -9307,11 +9305,11 @@
       <c r="B7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="68"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
@@ -9320,11 +9318,11 @@
       <c r="B8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="70"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="68"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
@@ -9340,34 +9338,34 @@
       <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="68"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11" s="66"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="70"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="68"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="66"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="70"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="68"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F13" s="66"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="68"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" s="18"/>
@@ -9384,34 +9382,34 @@
       <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="70"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="68"/>
     </row>
     <row r="17" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F17" s="66"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="70"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="68"/>
     </row>
     <row r="18" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F18" s="66"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="70"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="68"/>
     </row>
     <row r="19" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F19" s="66"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="70"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="68"/>
     </row>
     <row r="20" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F20" s="18"/>
@@ -9421,34 +9419,34 @@
       <c r="J20" s="20"/>
     </row>
     <row r="21" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="53"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="63"/>
     </row>
     <row r="22" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F22" s="49"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="53"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="63"/>
     </row>
     <row r="23" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F23" s="49"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="53"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="63"/>
     </row>
     <row r="24" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F24" s="54"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="56"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="66"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -9484,52 +9482,52 @@
       <c r="A1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="73" t="s">
         <v>81</v>
       </c>
       <c r="C1" s="72"/>
       <c r="D1" s="72"/>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="71" t="s">
         <v>82</v>
       </c>
       <c r="F1" s="72"/>
       <c r="G1" s="72"/>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="73" t="s">
         <v>83</v>
       </c>
       <c r="I1" s="72"/>
       <c r="J1" s="72"/>
-      <c r="K1" s="73" t="s">
+      <c r="K1" s="71" t="s">
         <v>84</v>
       </c>
       <c r="L1" s="72"/>
       <c r="M1" s="72"/>
-      <c r="N1" s="71" t="s">
+      <c r="N1" s="73" t="s">
         <v>85</v>
       </c>
       <c r="O1" s="72"/>
       <c r="P1" s="72"/>
-      <c r="Q1" s="73" t="s">
+      <c r="Q1" s="71" t="s">
         <v>87</v>
       </c>
       <c r="R1" s="72"/>
       <c r="S1" s="72"/>
-      <c r="T1" s="71" t="s">
+      <c r="T1" s="73" t="s">
         <v>88</v>
       </c>
       <c r="U1" s="72"/>
       <c r="V1" s="72"/>
-      <c r="W1" s="73" t="s">
+      <c r="W1" s="71" t="s">
         <v>89</v>
       </c>
       <c r="X1" s="72"/>
       <c r="Y1" s="72"/>
-      <c r="Z1" s="71" t="s">
+      <c r="Z1" s="73" t="s">
         <v>90</v>
       </c>
       <c r="AA1" s="72"/>
       <c r="AB1" s="72"/>
-      <c r="AC1" s="73" t="s">
+      <c r="AC1" s="71" t="s">
         <v>86</v>
       </c>
       <c r="AD1" s="72"/>
@@ -14510,16 +14508,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
